--- a/Group 1 - Final Report Project/3. Phan-cong_Ke-hoach-tuan-chi-tiet_Nhom-1.xlsx
+++ b/Group 1 - Final Report Project/3. Phan-cong_Ke-hoach-tuan-chi-tiet_Nhom-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying\2018 - 2019\HKII\Java Programming\Project\Group 1 - Final Report Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D847E04D-F240-4EFB-B3BF-9B161DA7BE9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B792DA7F-018C-4800-BF2E-380168E67B88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3008,6 +3008,252 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="71" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="72" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="67" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="68" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="69" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="71" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="51" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="58" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="77" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="62" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="74" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="76" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="67" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="77" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="70" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="69" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="74" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="72" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="57" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="81" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="82" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="78" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3020,6 +3266,54 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="78" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="65" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="79" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="83" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3059,18 +3353,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="51" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="51" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
       <protection locked="0"/>
@@ -3117,288 +3399,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="76" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="67" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="77" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="70" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="69" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="74" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="72" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="57" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="81" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="82" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="58" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="71" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="77" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="62" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="74" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="78" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="65" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="79" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="71" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="72" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="67" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="68" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="69" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -5155,7 +5155,7 @@
   </sheetPr>
   <dimension ref="A1:Z131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="73" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="73" workbookViewId="0">
       <selection activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
@@ -5216,25 +5216,25 @@
     </row>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="51"/>
-      <c r="D2" s="251" t="s">
+      <c r="D2" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="252"/>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="252"/>
-      <c r="P2" s="252"/>
-      <c r="Q2" s="252"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="252"/>
-      <c r="T2" s="253"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="208"/>
       <c r="V2" s="10"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
@@ -5243,33 +5243,33 @@
       <c r="A3" s="49"/>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="255"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="255"/>
-      <c r="K3" s="255"/>
-      <c r="L3" s="255"/>
-      <c r="M3" s="255"/>
-      <c r="N3" s="255"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="255"/>
-      <c r="Q3" s="255"/>
-      <c r="R3" s="255"/>
-      <c r="S3" s="255"/>
-      <c r="T3" s="256"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="210"/>
+      <c r="K3" s="210"/>
+      <c r="L3" s="210"/>
+      <c r="M3" s="210"/>
+      <c r="N3" s="210"/>
+      <c r="O3" s="210"/>
+      <c r="P3" s="210"/>
+      <c r="Q3" s="210"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="211"/>
       <c r="V3" s="13"/>
       <c r="W3" s="14"/>
       <c r="X3" s="14"/>
     </row>
     <row r="4" spans="1:24" s="15" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A4" s="222" t="s">
+      <c r="A4" s="239" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="223"/>
-      <c r="C4" s="223"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
       <c r="D4" s="61"/>
       <c r="E4" s="62"/>
       <c r="F4" s="62"/>
@@ -5278,21 +5278,21 @@
       </c>
       <c r="H4" s="62"/>
       <c r="I4" s="64"/>
-      <c r="J4" s="230" t="s">
+      <c r="J4" s="247" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="231"/>
-      <c r="L4" s="232"/>
-      <c r="M4" s="257" t="s">
+      <c r="K4" s="248"/>
+      <c r="L4" s="249"/>
+      <c r="M4" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="258"/>
-      <c r="O4" s="258"/>
-      <c r="P4" s="258"/>
-      <c r="Q4" s="258"/>
-      <c r="R4" s="258"/>
-      <c r="S4" s="258"/>
-      <c r="T4" s="259"/>
+      <c r="N4" s="213"/>
+      <c r="O4" s="213"/>
+      <c r="P4" s="213"/>
+      <c r="Q4" s="213"/>
+      <c r="R4" s="213"/>
+      <c r="S4" s="213"/>
+      <c r="T4" s="214"/>
       <c r="V4" s="16"/>
       <c r="W4" s="17"/>
       <c r="X4" s="17"/>
@@ -5409,14 +5409,14 @@
       <c r="A9" s="178"/>
       <c r="B9" s="179"/>
       <c r="C9" s="180"/>
-      <c r="D9" s="242" t="s">
+      <c r="D9" s="230" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
-      <c r="G9" s="243"/>
-      <c r="H9" s="243"/>
-      <c r="I9" s="244"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="231"/>
+      <c r="G9" s="231"/>
+      <c r="H9" s="231"/>
+      <c r="I9" s="232"/>
       <c r="J9" s="158"/>
       <c r="K9" s="159"/>
       <c r="L9" s="162"/>
@@ -5540,14 +5540,14 @@
       <c r="A14" s="178"/>
       <c r="B14" s="179"/>
       <c r="C14" s="180"/>
-      <c r="D14" s="272" t="s">
+      <c r="D14" s="236" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="273"/>
-      <c r="F14" s="273"/>
-      <c r="G14" s="273"/>
-      <c r="H14" s="273"/>
-      <c r="I14" s="274"/>
+      <c r="E14" s="237"/>
+      <c r="F14" s="237"/>
+      <c r="G14" s="237"/>
+      <c r="H14" s="237"/>
+      <c r="I14" s="238"/>
       <c r="J14" s="158"/>
       <c r="K14" s="159"/>
       <c r="L14" s="162"/>
@@ -5595,13 +5595,13 @@
       <c r="B16"/>
       <c r="C16" s="180"/>
       <c r="D16" s="95"/>
-      <c r="E16" s="245" t="s">
+      <c r="E16" s="262" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="246"/>
-      <c r="G16" s="246"/>
-      <c r="H16" s="246"/>
-      <c r="I16" s="247"/>
+      <c r="F16" s="263"/>
+      <c r="G16" s="263"/>
+      <c r="H16" s="263"/>
+      <c r="I16" s="264"/>
       <c r="J16" s="158"/>
       <c r="K16" s="155"/>
       <c r="L16" s="156"/>
@@ -5622,13 +5622,13 @@
       <c r="B17" s="179"/>
       <c r="C17" s="180"/>
       <c r="D17" s="95"/>
-      <c r="E17" s="248" t="s">
+      <c r="E17" s="227" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="249"/>
-      <c r="G17" s="249"/>
-      <c r="H17" s="249"/>
-      <c r="I17" s="250"/>
+      <c r="F17" s="228"/>
+      <c r="G17" s="228"/>
+      <c r="H17" s="228"/>
+      <c r="I17" s="229"/>
       <c r="J17" s="154"/>
       <c r="K17" s="159"/>
       <c r="L17" s="156"/>
@@ -5649,13 +5649,13 @@
       <c r="B18" s="179"/>
       <c r="C18" s="180"/>
       <c r="D18" s="95"/>
-      <c r="E18" s="269" t="s">
+      <c r="E18" s="233" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="270"/>
-      <c r="G18" s="270"/>
-      <c r="H18" s="270"/>
-      <c r="I18" s="271"/>
+      <c r="F18" s="234"/>
+      <c r="G18" s="234"/>
+      <c r="H18" s="234"/>
+      <c r="I18" s="235"/>
       <c r="J18" s="154"/>
       <c r="K18" s="155"/>
       <c r="L18" s="162"/>
@@ -5833,14 +5833,14 @@
       <c r="A25" s="178"/>
       <c r="B25" s="179"/>
       <c r="C25" s="180"/>
-      <c r="D25" s="272" t="s">
+      <c r="D25" s="236" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="273"/>
-      <c r="F25" s="273"/>
-      <c r="G25" s="273"/>
-      <c r="H25" s="273"/>
-      <c r="I25" s="274"/>
+      <c r="E25" s="237"/>
+      <c r="F25" s="237"/>
+      <c r="G25" s="237"/>
+      <c r="H25" s="237"/>
+      <c r="I25" s="238"/>
       <c r="J25" s="161"/>
       <c r="K25" s="155"/>
       <c r="L25" s="156"/>
@@ -5941,14 +5941,14 @@
       <c r="A29" s="178"/>
       <c r="B29" s="179"/>
       <c r="C29" s="180"/>
-      <c r="D29" s="242" t="s">
+      <c r="D29" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="243"/>
-      <c r="F29" s="243"/>
-      <c r="G29" s="243"/>
-      <c r="H29" s="243"/>
-      <c r="I29" s="244"/>
+      <c r="E29" s="231"/>
+      <c r="F29" s="231"/>
+      <c r="G29" s="231"/>
+      <c r="H29" s="231"/>
+      <c r="I29" s="232"/>
       <c r="J29" s="154"/>
       <c r="K29" s="159"/>
       <c r="L29" s="156"/>
@@ -6018,14 +6018,14 @@
       <c r="A32" s="178"/>
       <c r="B32" s="179"/>
       <c r="C32" s="180"/>
-      <c r="D32" s="272" t="s">
+      <c r="D32" s="236" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="273"/>
-      <c r="F32" s="273"/>
-      <c r="G32" s="273"/>
-      <c r="H32" s="273"/>
-      <c r="I32" s="274"/>
+      <c r="E32" s="237"/>
+      <c r="F32" s="237"/>
+      <c r="G32" s="237"/>
+      <c r="H32" s="237"/>
+      <c r="I32" s="238"/>
       <c r="J32" s="154"/>
       <c r="K32" s="155"/>
       <c r="L32" s="156"/>
@@ -6100,13 +6100,13 @@
       <c r="B35" s="179"/>
       <c r="C35"/>
       <c r="D35" s="116"/>
-      <c r="E35" s="248" t="s">
+      <c r="E35" s="227" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="249"/>
-      <c r="G35" s="249"/>
-      <c r="H35" s="249"/>
-      <c r="I35" s="250"/>
+      <c r="F35" s="228"/>
+      <c r="G35" s="228"/>
+      <c r="H35" s="228"/>
+      <c r="I35" s="229"/>
       <c r="J35" s="158"/>
       <c r="K35" s="159"/>
       <c r="L35" s="156"/>
@@ -6127,13 +6127,13 @@
       <c r="B36" s="179"/>
       <c r="C36" s="180"/>
       <c r="D36" s="116"/>
-      <c r="E36" s="248" t="s">
+      <c r="E36" s="227" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="249"/>
-      <c r="G36" s="249"/>
-      <c r="H36" s="249"/>
-      <c r="I36" s="250"/>
+      <c r="F36" s="228"/>
+      <c r="G36" s="228"/>
+      <c r="H36" s="228"/>
+      <c r="I36" s="229"/>
       <c r="J36" s="154"/>
       <c r="K36" s="159"/>
       <c r="L36" s="156"/>
@@ -6154,13 +6154,13 @@
       <c r="B37" s="179"/>
       <c r="C37" s="180"/>
       <c r="D37" s="116"/>
-      <c r="E37" s="248" t="s">
+      <c r="E37" s="227" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="249"/>
-      <c r="G37" s="249"/>
-      <c r="H37" s="249"/>
-      <c r="I37" s="250"/>
+      <c r="F37" s="228"/>
+      <c r="G37" s="228"/>
+      <c r="H37" s="228"/>
+      <c r="I37" s="229"/>
       <c r="J37" s="158"/>
       <c r="K37" s="155"/>
       <c r="L37" s="156"/>
@@ -6181,13 +6181,13 @@
       <c r="B38" s="179"/>
       <c r="C38" s="180"/>
       <c r="D38" s="116"/>
-      <c r="E38" s="248" t="s">
+      <c r="E38" s="227" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="249"/>
-      <c r="G38" s="249"/>
-      <c r="H38" s="249"/>
-      <c r="I38" s="250"/>
+      <c r="F38" s="228"/>
+      <c r="G38" s="228"/>
+      <c r="H38" s="228"/>
+      <c r="I38" s="229"/>
       <c r="J38" s="158"/>
       <c r="K38" s="159"/>
       <c r="L38" s="156"/>
@@ -6208,13 +6208,13 @@
       <c r="B39" s="179"/>
       <c r="C39" s="180"/>
       <c r="D39" s="116"/>
-      <c r="E39" s="248" t="s">
+      <c r="E39" s="227" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="249"/>
-      <c r="G39" s="249"/>
-      <c r="H39" s="249"/>
-      <c r="I39" s="250"/>
+      <c r="F39" s="228"/>
+      <c r="G39" s="228"/>
+      <c r="H39" s="228"/>
+      <c r="I39" s="229"/>
       <c r="J39" s="154"/>
       <c r="K39" s="159"/>
       <c r="L39" s="156"/>
@@ -6235,13 +6235,13 @@
       <c r="B40" s="179"/>
       <c r="C40" s="180"/>
       <c r="D40" s="116"/>
-      <c r="E40" s="248" t="s">
+      <c r="E40" s="227" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="249"/>
-      <c r="G40" s="249"/>
-      <c r="H40" s="249"/>
-      <c r="I40" s="250"/>
+      <c r="F40" s="228"/>
+      <c r="G40" s="228"/>
+      <c r="H40" s="228"/>
+      <c r="I40" s="229"/>
       <c r="J40" s="154"/>
       <c r="K40" s="155"/>
       <c r="L40" s="156"/>
@@ -6261,14 +6261,14 @@
       <c r="A41" s="178"/>
       <c r="B41" s="179"/>
       <c r="C41" s="180"/>
-      <c r="D41" s="281" t="s">
+      <c r="D41" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="282"/>
-      <c r="F41" s="282"/>
-      <c r="G41" s="282"/>
-      <c r="H41" s="282"/>
-      <c r="I41" s="283"/>
+      <c r="E41" s="272"/>
+      <c r="F41" s="272"/>
+      <c r="G41" s="272"/>
+      <c r="H41" s="272"/>
+      <c r="I41" s="273"/>
       <c r="J41" s="158"/>
       <c r="K41" s="159"/>
       <c r="L41" s="156"/>
@@ -6288,14 +6288,14 @@
       <c r="A42" s="178"/>
       <c r="B42" s="179"/>
       <c r="C42" s="180"/>
-      <c r="D42" s="290" t="s">
+      <c r="D42" s="200" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="291"/>
-      <c r="F42" s="291"/>
-      <c r="G42" s="291"/>
-      <c r="H42" s="291"/>
-      <c r="I42" s="292"/>
+      <c r="E42" s="201"/>
+      <c r="F42" s="201"/>
+      <c r="G42" s="201"/>
+      <c r="H42" s="201"/>
+      <c r="I42" s="202"/>
       <c r="J42" s="154"/>
       <c r="K42" s="159"/>
       <c r="L42" s="156"/>
@@ -6367,14 +6367,14 @@
       <c r="A45" s="178"/>
       <c r="B45" s="179"/>
       <c r="C45" s="180"/>
-      <c r="D45" s="293" t="s">
+      <c r="D45" s="203" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="294"/>
-      <c r="F45" s="294"/>
-      <c r="G45" s="294"/>
-      <c r="H45" s="294"/>
-      <c r="I45" s="295"/>
+      <c r="E45" s="204"/>
+      <c r="F45" s="204"/>
+      <c r="G45" s="204"/>
+      <c r="H45" s="204"/>
+      <c r="I45" s="205"/>
       <c r="J45" s="154"/>
       <c r="K45" s="155"/>
       <c r="L45" s="156"/>
@@ -6523,14 +6523,14 @@
       <c r="A51" s="178"/>
       <c r="B51" s="179"/>
       <c r="C51" s="180"/>
-      <c r="D51" s="284" t="s">
+      <c r="D51" s="194" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="285"/>
-      <c r="F51" s="285"/>
-      <c r="G51" s="285"/>
-      <c r="H51" s="285"/>
-      <c r="I51" s="286"/>
+      <c r="E51" s="195"/>
+      <c r="F51" s="195"/>
+      <c r="G51" s="195"/>
+      <c r="H51" s="195"/>
+      <c r="I51" s="196"/>
       <c r="J51" s="161"/>
       <c r="K51" s="155"/>
       <c r="L51" s="156"/>
@@ -6734,14 +6734,14 @@
       <c r="A59" s="178"/>
       <c r="B59" s="179"/>
       <c r="C59" s="180"/>
-      <c r="D59" s="287" t="s">
+      <c r="D59" s="197" t="s">
         <v>41</v>
       </c>
-      <c r="E59" s="288"/>
-      <c r="F59" s="288"/>
-      <c r="G59" s="288"/>
-      <c r="H59" s="288"/>
-      <c r="I59" s="289"/>
+      <c r="E59" s="198"/>
+      <c r="F59" s="198"/>
+      <c r="G59" s="198"/>
+      <c r="H59" s="198"/>
+      <c r="I59" s="199"/>
       <c r="J59" s="154"/>
       <c r="K59" s="155"/>
       <c r="L59" s="156"/>
@@ -6761,14 +6761,14 @@
       <c r="A60" s="178"/>
       <c r="B60" s="179"/>
       <c r="C60" s="180"/>
-      <c r="D60" s="284" t="s">
+      <c r="D60" s="194" t="s">
         <v>46</v>
       </c>
-      <c r="E60" s="285"/>
-      <c r="F60" s="285"/>
-      <c r="G60" s="285"/>
-      <c r="H60" s="285"/>
-      <c r="I60" s="286"/>
+      <c r="E60" s="195"/>
+      <c r="F60" s="195"/>
+      <c r="G60" s="195"/>
+      <c r="H60" s="195"/>
+      <c r="I60" s="196"/>
       <c r="J60" s="154"/>
       <c r="K60" s="155"/>
       <c r="L60" s="156"/>
@@ -6945,14 +6945,14 @@
       <c r="A67" s="178"/>
       <c r="B67" s="179"/>
       <c r="C67" s="180"/>
-      <c r="D67" s="284" t="s">
+      <c r="D67" s="194" t="s">
         <v>79</v>
       </c>
-      <c r="E67" s="285"/>
-      <c r="F67" s="285"/>
-      <c r="G67" s="285"/>
-      <c r="H67" s="285"/>
-      <c r="I67" s="286"/>
+      <c r="E67" s="195"/>
+      <c r="F67" s="195"/>
+      <c r="G67" s="195"/>
+      <c r="H67" s="195"/>
+      <c r="I67" s="196"/>
       <c r="J67" s="154"/>
       <c r="K67" s="155"/>
       <c r="L67" s="156"/>
@@ -7150,14 +7150,14 @@
       <c r="A75" s="178"/>
       <c r="B75" s="179"/>
       <c r="C75" s="180"/>
-      <c r="D75" s="278" t="s">
+      <c r="D75" s="268" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="279"/>
-      <c r="F75" s="279"/>
-      <c r="G75" s="279"/>
-      <c r="H75" s="279"/>
-      <c r="I75" s="280"/>
+      <c r="E75" s="269"/>
+      <c r="F75" s="269"/>
+      <c r="G75" s="269"/>
+      <c r="H75" s="269"/>
+      <c r="I75" s="270"/>
       <c r="J75" s="154"/>
       <c r="K75" s="155"/>
       <c r="L75" s="156"/>
@@ -7229,14 +7229,14 @@
       <c r="A78" s="178"/>
       <c r="B78" s="179"/>
       <c r="C78" s="180"/>
-      <c r="D78" s="278" t="s">
+      <c r="D78" s="268" t="s">
         <v>42</v>
       </c>
-      <c r="E78" s="279"/>
-      <c r="F78" s="279"/>
-      <c r="G78" s="279"/>
-      <c r="H78" s="279"/>
-      <c r="I78" s="280"/>
+      <c r="E78" s="269"/>
+      <c r="F78" s="269"/>
+      <c r="G78" s="269"/>
+      <c r="H78" s="269"/>
+      <c r="I78" s="270"/>
       <c r="J78" s="154"/>
       <c r="K78" s="155"/>
       <c r="L78" s="156"/>
@@ -7389,14 +7389,14 @@
       <c r="A84" s="178"/>
       <c r="B84" s="179"/>
       <c r="C84" s="180"/>
-      <c r="D84" s="278" t="s">
+      <c r="D84" s="268" t="s">
         <v>42</v>
       </c>
-      <c r="E84" s="279"/>
-      <c r="F84" s="279"/>
-      <c r="G84" s="279"/>
-      <c r="H84" s="279"/>
-      <c r="I84" s="280"/>
+      <c r="E84" s="269"/>
+      <c r="F84" s="269"/>
+      <c r="G84" s="269"/>
+      <c r="H84" s="269"/>
+      <c r="I84" s="270"/>
       <c r="J84" s="154"/>
       <c r="K84" s="155"/>
       <c r="L84" s="156"/>
@@ -7519,14 +7519,14 @@
       <c r="A89" s="178"/>
       <c r="B89" s="179"/>
       <c r="C89" s="180"/>
-      <c r="D89" s="275" t="s">
+      <c r="D89" s="265" t="s">
         <v>43</v>
       </c>
-      <c r="E89" s="276"/>
-      <c r="F89" s="276"/>
-      <c r="G89" s="276"/>
-      <c r="H89" s="276"/>
-      <c r="I89" s="277"/>
+      <c r="E89" s="266"/>
+      <c r="F89" s="266"/>
+      <c r="G89" s="266"/>
+      <c r="H89" s="266"/>
+      <c r="I89" s="267"/>
       <c r="J89" s="154"/>
       <c r="K89" s="155"/>
       <c r="L89" s="156"/>
@@ -7632,16 +7632,16 @@
       <c r="J93" s="68"/>
       <c r="K93" s="69"/>
       <c r="L93" s="90"/>
-      <c r="M93" s="236" t="s">
+      <c r="M93" s="253" t="s">
         <v>8</v>
       </c>
-      <c r="N93" s="237"/>
-      <c r="O93" s="237"/>
-      <c r="P93" s="237"/>
-      <c r="Q93" s="237"/>
-      <c r="R93" s="237"/>
-      <c r="S93" s="237"/>
-      <c r="T93" s="238"/>
+      <c r="N93" s="254"/>
+      <c r="O93" s="254"/>
+      <c r="P93" s="254"/>
+      <c r="Q93" s="254"/>
+      <c r="R93" s="254"/>
+      <c r="S93" s="254"/>
+      <c r="T93" s="255"/>
       <c r="V93" s="19"/>
       <c r="W93" s="20"/>
       <c r="X93" s="20"/>
@@ -7649,38 +7649,38 @@
       <c r="Z93" s="1"/>
     </row>
     <row r="94" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A94" s="239" t="s">
+      <c r="A94" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="B94" s="240"/>
-      <c r="C94" s="241"/>
+      <c r="B94" s="257"/>
+      <c r="C94" s="258"/>
       <c r="D94" s="79"/>
       <c r="G94" s="27"/>
       <c r="H94" s="28"/>
       <c r="I94" s="28"/>
-      <c r="J94" s="227" t="s">
+      <c r="J94" s="244" t="s">
         <v>6</v>
       </c>
-      <c r="K94" s="263" t="s">
+      <c r="K94" s="218" t="s">
         <v>22</v>
       </c>
-      <c r="L94" s="233" t="s">
+      <c r="L94" s="250" t="s">
         <v>7</v>
       </c>
-      <c r="M94" s="224" t="s">
+      <c r="M94" s="241" t="s">
         <v>10</v>
       </c>
-      <c r="N94" s="210" t="s">
+      <c r="N94" s="284" t="s">
         <v>11</v>
       </c>
-      <c r="O94" s="266" t="s">
+      <c r="O94" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="P94" s="207"/>
-      <c r="Q94" s="207"/>
-      <c r="R94" s="207"/>
-      <c r="S94" s="207"/>
-      <c r="T94" s="260"/>
+      <c r="P94" s="221"/>
+      <c r="Q94" s="221"/>
+      <c r="R94" s="221"/>
+      <c r="S94" s="221"/>
+      <c r="T94" s="215"/>
       <c r="V94" s="19"/>
       <c r="W94" s="20"/>
       <c r="X94" s="20"/>
@@ -7688,24 +7688,24 @@
       <c r="Z94" s="1"/>
     </row>
     <row r="95" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A95" s="194"/>
-      <c r="B95" s="195"/>
-      <c r="C95" s="196"/>
+      <c r="A95" s="259"/>
+      <c r="B95" s="260"/>
+      <c r="C95" s="261"/>
       <c r="D95" s="79"/>
       <c r="G95" s="29"/>
       <c r="H95" s="28"/>
       <c r="I95" s="28"/>
-      <c r="J95" s="228"/>
-      <c r="K95" s="264"/>
-      <c r="L95" s="234"/>
-      <c r="M95" s="225"/>
-      <c r="N95" s="211"/>
-      <c r="O95" s="267"/>
-      <c r="P95" s="208"/>
-      <c r="Q95" s="208"/>
-      <c r="R95" s="208"/>
-      <c r="S95" s="208"/>
-      <c r="T95" s="261"/>
+      <c r="J95" s="245"/>
+      <c r="K95" s="219"/>
+      <c r="L95" s="251"/>
+      <c r="M95" s="242"/>
+      <c r="N95" s="285"/>
+      <c r="O95" s="225"/>
+      <c r="P95" s="222"/>
+      <c r="Q95" s="222"/>
+      <c r="R95" s="222"/>
+      <c r="S95" s="222"/>
+      <c r="T95" s="216"/>
       <c r="V95" s="19"/>
       <c r="W95" s="20"/>
       <c r="X95" s="20"/>
@@ -7713,24 +7713,24 @@
       <c r="Z95" s="1"/>
     </row>
     <row r="96" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A96" s="194"/>
-      <c r="B96" s="195"/>
-      <c r="C96" s="196"/>
+      <c r="A96" s="259"/>
+      <c r="B96" s="260"/>
+      <c r="C96" s="261"/>
       <c r="D96" s="79"/>
       <c r="G96" s="29"/>
       <c r="H96" s="28"/>
       <c r="I96" s="28"/>
-      <c r="J96" s="228"/>
-      <c r="K96" s="264"/>
-      <c r="L96" s="234"/>
-      <c r="M96" s="225"/>
-      <c r="N96" s="211"/>
-      <c r="O96" s="267"/>
-      <c r="P96" s="208"/>
-      <c r="Q96" s="208"/>
-      <c r="R96" s="208"/>
-      <c r="S96" s="208"/>
-      <c r="T96" s="261"/>
+      <c r="J96" s="245"/>
+      <c r="K96" s="219"/>
+      <c r="L96" s="251"/>
+      <c r="M96" s="242"/>
+      <c r="N96" s="285"/>
+      <c r="O96" s="225"/>
+      <c r="P96" s="222"/>
+      <c r="Q96" s="222"/>
+      <c r="R96" s="222"/>
+      <c r="S96" s="222"/>
+      <c r="T96" s="216"/>
       <c r="V96" s="2"/>
       <c r="W96" s="20"/>
       <c r="X96" s="20"/>
@@ -7738,24 +7738,24 @@
       <c r="Z96" s="1"/>
     </row>
     <row r="97" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A97" s="194"/>
-      <c r="B97" s="195"/>
-      <c r="C97" s="196"/>
+      <c r="A97" s="259"/>
+      <c r="B97" s="260"/>
+      <c r="C97" s="261"/>
       <c r="D97" s="79"/>
       <c r="G97" s="30"/>
       <c r="H97" s="28"/>
       <c r="I97" s="28"/>
-      <c r="J97" s="228"/>
-      <c r="K97" s="264"/>
-      <c r="L97" s="234"/>
-      <c r="M97" s="225"/>
-      <c r="N97" s="211"/>
-      <c r="O97" s="267"/>
-      <c r="P97" s="208"/>
-      <c r="Q97" s="208"/>
-      <c r="R97" s="208"/>
-      <c r="S97" s="208"/>
-      <c r="T97" s="261"/>
+      <c r="J97" s="245"/>
+      <c r="K97" s="219"/>
+      <c r="L97" s="251"/>
+      <c r="M97" s="242"/>
+      <c r="N97" s="285"/>
+      <c r="O97" s="225"/>
+      <c r="P97" s="222"/>
+      <c r="Q97" s="222"/>
+      <c r="R97" s="222"/>
+      <c r="S97" s="222"/>
+      <c r="T97" s="216"/>
       <c r="V97" s="2"/>
       <c r="W97" s="20"/>
       <c r="X97" s="20"/>
@@ -7763,24 +7763,24 @@
       <c r="Z97" s="1"/>
     </row>
     <row r="98" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A98" s="194"/>
-      <c r="B98" s="195"/>
-      <c r="C98" s="196"/>
+      <c r="A98" s="259"/>
+      <c r="B98" s="260"/>
+      <c r="C98" s="261"/>
       <c r="D98" s="79"/>
       <c r="G98" s="27"/>
       <c r="H98" s="28"/>
       <c r="I98" s="28"/>
-      <c r="J98" s="228"/>
-      <c r="K98" s="264"/>
-      <c r="L98" s="234"/>
-      <c r="M98" s="225"/>
-      <c r="N98" s="211"/>
-      <c r="O98" s="267"/>
-      <c r="P98" s="208"/>
-      <c r="Q98" s="208"/>
-      <c r="R98" s="208"/>
-      <c r="S98" s="208"/>
-      <c r="T98" s="261"/>
+      <c r="J98" s="245"/>
+      <c r="K98" s="219"/>
+      <c r="L98" s="251"/>
+      <c r="M98" s="242"/>
+      <c r="N98" s="285"/>
+      <c r="O98" s="225"/>
+      <c r="P98" s="222"/>
+      <c r="Q98" s="222"/>
+      <c r="R98" s="222"/>
+      <c r="S98" s="222"/>
+      <c r="T98" s="216"/>
       <c r="V98" s="16"/>
       <c r="W98" s="16"/>
       <c r="X98" s="16"/>
@@ -7788,51 +7788,51 @@
       <c r="Z98" s="1"/>
     </row>
     <row r="99" spans="1:26" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A99" s="194"/>
-      <c r="B99" s="195"/>
-      <c r="C99" s="196"/>
+      <c r="A99" s="259"/>
+      <c r="B99" s="260"/>
+      <c r="C99" s="261"/>
       <c r="D99" s="79"/>
       <c r="G99" s="31"/>
       <c r="H99" s="28"/>
       <c r="I99" s="28"/>
-      <c r="J99" s="229"/>
-      <c r="K99" s="265"/>
-      <c r="L99" s="235"/>
-      <c r="M99" s="226"/>
-      <c r="N99" s="212"/>
-      <c r="O99" s="268"/>
-      <c r="P99" s="209"/>
-      <c r="Q99" s="209"/>
-      <c r="R99" s="209"/>
-      <c r="S99" s="209"/>
-      <c r="T99" s="262"/>
+      <c r="J99" s="246"/>
+      <c r="K99" s="220"/>
+      <c r="L99" s="252"/>
+      <c r="M99" s="243"/>
+      <c r="N99" s="286"/>
+      <c r="O99" s="226"/>
+      <c r="P99" s="223"/>
+      <c r="Q99" s="223"/>
+      <c r="R99" s="223"/>
+      <c r="S99" s="223"/>
+      <c r="T99" s="217"/>
       <c r="V99" s="16"/>
-      <c r="W99" s="206"/>
-      <c r="X99" s="206"/>
+      <c r="W99" s="283"/>
+      <c r="X99" s="283"/>
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A100" s="194" t="s">
+      <c r="A100" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="195"/>
-      <c r="C100" s="196"/>
+      <c r="B100" s="260"/>
+      <c r="C100" s="261"/>
       <c r="D100" s="79"/>
       <c r="G100" s="31"/>
       <c r="H100" s="31"/>
       <c r="I100" s="31"/>
-      <c r="J100" s="213"/>
-      <c r="K100" s="214"/>
-      <c r="L100" s="214"/>
-      <c r="M100" s="214"/>
-      <c r="N100" s="214"/>
-      <c r="O100" s="214"/>
-      <c r="P100" s="214"/>
-      <c r="Q100" s="214"/>
-      <c r="R100" s="214"/>
-      <c r="S100" s="214"/>
-      <c r="T100" s="215"/>
+      <c r="J100" s="287"/>
+      <c r="K100" s="288"/>
+      <c r="L100" s="288"/>
+      <c r="M100" s="288"/>
+      <c r="N100" s="288"/>
+      <c r="O100" s="288"/>
+      <c r="P100" s="288"/>
+      <c r="Q100" s="288"/>
+      <c r="R100" s="288"/>
+      <c r="S100" s="288"/>
+      <c r="T100" s="289"/>
       <c r="V100" s="16"/>
       <c r="W100" s="17"/>
       <c r="X100" s="17"/>
@@ -7840,26 +7840,26 @@
       <c r="Z100" s="1"/>
     </row>
     <row r="101" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A101" s="194"/>
-      <c r="B101" s="195"/>
-      <c r="C101" s="196"/>
+      <c r="A101" s="259"/>
+      <c r="B101" s="260"/>
+      <c r="C101" s="261"/>
       <c r="D101" s="80"/>
       <c r="E101" s="32"/>
       <c r="F101" s="32"/>
       <c r="G101" s="31"/>
       <c r="H101" s="29"/>
       <c r="I101" s="29"/>
-      <c r="J101" s="216"/>
-      <c r="K101" s="217"/>
-      <c r="L101" s="217"/>
-      <c r="M101" s="217"/>
-      <c r="N101" s="217"/>
-      <c r="O101" s="217"/>
-      <c r="P101" s="217"/>
-      <c r="Q101" s="217"/>
-      <c r="R101" s="217"/>
-      <c r="S101" s="217"/>
-      <c r="T101" s="218"/>
+      <c r="J101" s="290"/>
+      <c r="K101" s="291"/>
+      <c r="L101" s="291"/>
+      <c r="M101" s="291"/>
+      <c r="N101" s="291"/>
+      <c r="O101" s="291"/>
+      <c r="P101" s="291"/>
+      <c r="Q101" s="291"/>
+      <c r="R101" s="291"/>
+      <c r="S101" s="291"/>
+      <c r="T101" s="292"/>
       <c r="V101" s="16"/>
       <c r="W101" s="33"/>
       <c r="X101" s="33"/>
@@ -7867,24 +7867,24 @@
       <c r="Z101" s="1"/>
     </row>
     <row r="102" spans="1:26" ht="15.75">
-      <c r="A102" s="194"/>
-      <c r="B102" s="195"/>
-      <c r="C102" s="196"/>
+      <c r="A102" s="259"/>
+      <c r="B102" s="260"/>
+      <c r="C102" s="261"/>
       <c r="D102" s="79"/>
       <c r="G102" s="27"/>
       <c r="H102" s="29"/>
       <c r="I102" s="29"/>
-      <c r="J102" s="216"/>
-      <c r="K102" s="217"/>
-      <c r="L102" s="217"/>
-      <c r="M102" s="217"/>
-      <c r="N102" s="217"/>
-      <c r="O102" s="217"/>
-      <c r="P102" s="217"/>
-      <c r="Q102" s="217"/>
-      <c r="R102" s="217"/>
-      <c r="S102" s="217"/>
-      <c r="T102" s="218"/>
+      <c r="J102" s="290"/>
+      <c r="K102" s="291"/>
+      <c r="L102" s="291"/>
+      <c r="M102" s="291"/>
+      <c r="N102" s="291"/>
+      <c r="O102" s="291"/>
+      <c r="P102" s="291"/>
+      <c r="Q102" s="291"/>
+      <c r="R102" s="291"/>
+      <c r="S102" s="291"/>
+      <c r="T102" s="292"/>
       <c r="V102" s="16"/>
       <c r="W102" s="33"/>
       <c r="X102" s="35"/>
@@ -7892,24 +7892,24 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103" spans="1:26" ht="15.75">
-      <c r="A103" s="194"/>
-      <c r="B103" s="195"/>
-      <c r="C103" s="196"/>
+      <c r="A103" s="259"/>
+      <c r="B103" s="260"/>
+      <c r="C103" s="261"/>
       <c r="D103" s="79"/>
       <c r="G103" s="27"/>
       <c r="H103" s="29"/>
       <c r="I103" s="34"/>
-      <c r="J103" s="216"/>
-      <c r="K103" s="217"/>
-      <c r="L103" s="217"/>
-      <c r="M103" s="217"/>
-      <c r="N103" s="217"/>
-      <c r="O103" s="217"/>
-      <c r="P103" s="217"/>
-      <c r="Q103" s="217"/>
-      <c r="R103" s="217"/>
-      <c r="S103" s="217"/>
-      <c r="T103" s="218"/>
+      <c r="J103" s="290"/>
+      <c r="K103" s="291"/>
+      <c r="L103" s="291"/>
+      <c r="M103" s="291"/>
+      <c r="N103" s="291"/>
+      <c r="O103" s="291"/>
+      <c r="P103" s="291"/>
+      <c r="Q103" s="291"/>
+      <c r="R103" s="291"/>
+      <c r="S103" s="291"/>
+      <c r="T103" s="292"/>
       <c r="V103" s="16"/>
       <c r="W103" s="33"/>
       <c r="X103" s="33"/>
@@ -7917,24 +7917,24 @@
       <c r="Z103" s="1"/>
     </row>
     <row r="104" spans="1:26">
-      <c r="A104" s="194"/>
-      <c r="B104" s="195"/>
-      <c r="C104" s="196"/>
+      <c r="A104" s="259"/>
+      <c r="B104" s="260"/>
+      <c r="C104" s="261"/>
       <c r="D104" s="79"/>
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="216"/>
-      <c r="K104" s="217"/>
-      <c r="L104" s="217"/>
-      <c r="M104" s="217"/>
-      <c r="N104" s="217"/>
-      <c r="O104" s="217"/>
-      <c r="P104" s="217"/>
-      <c r="Q104" s="217"/>
-      <c r="R104" s="217"/>
-      <c r="S104" s="217"/>
-      <c r="T104" s="218"/>
+      <c r="J104" s="290"/>
+      <c r="K104" s="291"/>
+      <c r="L104" s="291"/>
+      <c r="M104" s="291"/>
+      <c r="N104" s="291"/>
+      <c r="O104" s="291"/>
+      <c r="P104" s="291"/>
+      <c r="Q104" s="291"/>
+      <c r="R104" s="291"/>
+      <c r="S104" s="291"/>
+      <c r="T104" s="292"/>
       <c r="V104" s="16"/>
       <c r="W104" s="37"/>
       <c r="X104" s="3"/>
@@ -7942,22 +7942,22 @@
       <c r="Z104" s="1"/>
     </row>
     <row r="105" spans="1:26" ht="15.75">
-      <c r="A105" s="194"/>
-      <c r="B105" s="195"/>
-      <c r="C105" s="196"/>
+      <c r="A105" s="259"/>
+      <c r="B105" s="260"/>
+      <c r="C105" s="261"/>
       <c r="D105" s="79"/>
       <c r="G105" s="36"/>
-      <c r="J105" s="216"/>
-      <c r="K105" s="217"/>
-      <c r="L105" s="217"/>
-      <c r="M105" s="217"/>
-      <c r="N105" s="217"/>
-      <c r="O105" s="217"/>
-      <c r="P105" s="217"/>
-      <c r="Q105" s="217"/>
-      <c r="R105" s="217"/>
-      <c r="S105" s="217"/>
-      <c r="T105" s="218"/>
+      <c r="J105" s="290"/>
+      <c r="K105" s="291"/>
+      <c r="L105" s="291"/>
+      <c r="M105" s="291"/>
+      <c r="N105" s="291"/>
+      <c r="O105" s="291"/>
+      <c r="P105" s="291"/>
+      <c r="Q105" s="291"/>
+      <c r="R105" s="291"/>
+      <c r="S105" s="291"/>
+      <c r="T105" s="292"/>
       <c r="V105" s="2"/>
       <c r="W105" s="37"/>
       <c r="X105" s="37"/>
@@ -7965,26 +7965,26 @@
       <c r="Z105" s="1"/>
     </row>
     <row r="106" spans="1:26" ht="13.5" thickBot="1">
-      <c r="A106" s="194"/>
-      <c r="B106" s="195"/>
-      <c r="C106" s="196"/>
+      <c r="A106" s="259"/>
+      <c r="B106" s="260"/>
+      <c r="C106" s="261"/>
       <c r="D106" s="83"/>
       <c r="E106" s="39"/>
       <c r="F106" s="39"/>
       <c r="G106" s="38"/>
       <c r="H106" s="39"/>
       <c r="I106" s="39"/>
-      <c r="J106" s="219"/>
-      <c r="K106" s="220"/>
-      <c r="L106" s="220"/>
-      <c r="M106" s="220"/>
-      <c r="N106" s="220"/>
-      <c r="O106" s="220"/>
-      <c r="P106" s="220"/>
-      <c r="Q106" s="220"/>
-      <c r="R106" s="220"/>
-      <c r="S106" s="220"/>
-      <c r="T106" s="221"/>
+      <c r="J106" s="293"/>
+      <c r="K106" s="294"/>
+      <c r="L106" s="294"/>
+      <c r="M106" s="294"/>
+      <c r="N106" s="294"/>
+      <c r="O106" s="294"/>
+      <c r="P106" s="294"/>
+      <c r="Q106" s="294"/>
+      <c r="R106" s="294"/>
+      <c r="S106" s="294"/>
+      <c r="T106" s="295"/>
       <c r="V106" s="2"/>
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
@@ -7992,11 +7992,11 @@
       <c r="Z106" s="1"/>
     </row>
     <row r="107" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A107" s="197" t="s">
+      <c r="A107" s="274" t="s">
         <v>35</v>
       </c>
-      <c r="B107" s="198"/>
-      <c r="C107" s="199"/>
+      <c r="B107" s="275"/>
+      <c r="C107" s="276"/>
       <c r="D107" s="84"/>
       <c r="E107" s="72"/>
       <c r="F107" s="72"/>
@@ -8021,9 +8021,9 @@
       <c r="Z107" s="1"/>
     </row>
     <row r="108" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A108" s="200"/>
-      <c r="B108" s="201"/>
-      <c r="C108" s="202"/>
+      <c r="A108" s="277"/>
+      <c r="B108" s="278"/>
+      <c r="C108" s="279"/>
       <c r="D108" s="85"/>
       <c r="E108" s="70"/>
       <c r="F108" s="70"/>
@@ -8048,9 +8048,9 @@
       <c r="Z108" s="1"/>
     </row>
     <row r="109" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A109" s="200"/>
-      <c r="B109" s="201"/>
-      <c r="C109" s="202"/>
+      <c r="A109" s="277"/>
+      <c r="B109" s="278"/>
+      <c r="C109" s="279"/>
       <c r="D109" s="85"/>
       <c r="E109" s="70"/>
       <c r="F109" s="70"/>
@@ -8075,9 +8075,9 @@
       <c r="Z109" s="1"/>
     </row>
     <row r="110" spans="1:26" s="15" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A110" s="203"/>
-      <c r="B110" s="204"/>
-      <c r="C110" s="205"/>
+      <c r="A110" s="280"/>
+      <c r="B110" s="281"/>
+      <c r="C110" s="282"/>
       <c r="D110" s="86"/>
       <c r="E110" s="74"/>
       <c r="F110" s="74"/>
@@ -8303,12 +8303,30 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="D51:I51"/>
+    <mergeCell ref="A100:C106"/>
+    <mergeCell ref="A107:C110"/>
+    <mergeCell ref="W99:X99"/>
+    <mergeCell ref="S94:S99"/>
+    <mergeCell ref="N94:N99"/>
+    <mergeCell ref="P94:P99"/>
+    <mergeCell ref="Q94:Q99"/>
+    <mergeCell ref="J100:T106"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="M94:M99"/>
+    <mergeCell ref="J94:J99"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="L94:L99"/>
+    <mergeCell ref="M93:T93"/>
+    <mergeCell ref="A94:C99"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="D89:I89"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D41:I41"/>
     <mergeCell ref="D2:T3"/>
     <mergeCell ref="M4:T4"/>
     <mergeCell ref="T94:T99"/>
@@ -8325,30 +8343,12 @@
     <mergeCell ref="D25:I25"/>
     <mergeCell ref="D32:I32"/>
     <mergeCell ref="E35:I35"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="M94:M99"/>
-    <mergeCell ref="J94:J99"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="L94:L99"/>
-    <mergeCell ref="M93:T93"/>
-    <mergeCell ref="A94:C99"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="D89:I89"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="A100:C106"/>
-    <mergeCell ref="A107:C110"/>
-    <mergeCell ref="W99:X99"/>
-    <mergeCell ref="S94:S99"/>
-    <mergeCell ref="N94:N99"/>
-    <mergeCell ref="P94:P99"/>
-    <mergeCell ref="Q94:Q99"/>
-    <mergeCell ref="J100:T106"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="D51:I51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I115:J115 U114:Z114 L115:T115">

--- a/Group 1 - Final Report Project/3. Phan-cong_Ke-hoach-tuan-chi-tiet_Nhom-1.xlsx
+++ b/Group 1 - Final Report Project/3. Phan-cong_Ke-hoach-tuan-chi-tiet_Nhom-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying\2018 - 2019\HKII\Java Programming\Project\Group 1 - Final Report Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD50C62-7821-4BD5-8A2E-B4A6600CA92D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A065D1-B8A0-422F-85F7-175946FA7ED2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3075,7 +3075,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="348">
+  <cellXfs count="349">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
@@ -3779,10 +3779,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="46" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -4049,10 +4045,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -4322,6 +4314,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="78" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="85" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="91" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -7903,8 +7907,8 @@
   </sheetPr>
   <dimension ref="A1:V134"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="73" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:I17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="73" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106:I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8019,12 +8023,12 @@
       </c>
       <c r="K4" s="196"/>
       <c r="L4" s="196"/>
-      <c r="M4" s="316" t="s">
+      <c r="M4" s="314" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="317"/>
-      <c r="O4" s="317"/>
-      <c r="P4" s="318"/>
+      <c r="N4" s="315"/>
+      <c r="O4" s="315"/>
+      <c r="P4" s="316"/>
       <c r="R4" s="16"/>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
@@ -8043,19 +8047,19 @@
       <c r="I5" s="57"/>
       <c r="J5" s="88"/>
       <c r="K5" s="89"/>
-      <c r="L5" s="312"/>
-      <c r="M5" s="320"/>
-      <c r="N5" s="321"/>
-      <c r="O5" s="321"/>
-      <c r="P5" s="322"/>
+      <c r="L5" s="310"/>
+      <c r="M5" s="318"/>
+      <c r="N5" s="319"/>
+      <c r="O5" s="319"/>
+      <c r="P5" s="320"/>
       <c r="R5" s="19"/>
       <c r="S5" s="20"/>
       <c r="T5" s="20"/>
     </row>
     <row r="6" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="107"/>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
+      <c r="B6" s="210"/>
+      <c r="C6" s="210"/>
       <c r="D6" s="58" t="s">
         <v>56</v>
       </c>
@@ -8066,19 +8070,19 @@
       <c r="I6" s="63"/>
       <c r="J6" s="93"/>
       <c r="K6" s="91"/>
-      <c r="L6" s="313"/>
-      <c r="M6" s="323"/>
-      <c r="N6" s="319"/>
-      <c r="O6" s="319"/>
-      <c r="P6" s="324"/>
+      <c r="L6" s="311"/>
+      <c r="M6" s="321"/>
+      <c r="N6" s="317"/>
+      <c r="O6" s="317"/>
+      <c r="P6" s="322"/>
       <c r="R6" s="19"/>
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
     </row>
     <row r="7" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="107"/>
-      <c r="B7" s="211"/>
-      <c r="C7" s="211"/>
+      <c r="B7" s="210"/>
+      <c r="C7" s="210"/>
       <c r="D7" s="58" t="s">
         <v>26</v>
       </c>
@@ -8089,19 +8093,19 @@
       <c r="I7" s="63"/>
       <c r="J7" s="92"/>
       <c r="K7" s="94"/>
-      <c r="L7" s="313"/>
-      <c r="M7" s="323"/>
-      <c r="N7" s="319"/>
-      <c r="O7" s="319"/>
-      <c r="P7" s="324"/>
+      <c r="L7" s="311"/>
+      <c r="M7" s="321"/>
+      <c r="N7" s="317"/>
+      <c r="O7" s="317"/>
+      <c r="P7" s="322"/>
       <c r="R7" s="19"/>
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
     </row>
     <row r="8" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="107"/>
-      <c r="B8" s="211"/>
-      <c r="C8" s="211"/>
+      <c r="B8" s="210"/>
+      <c r="C8" s="210"/>
       <c r="D8" s="58" t="s">
         <v>27</v>
       </c>
@@ -8112,19 +8116,19 @@
       <c r="I8" s="64"/>
       <c r="J8" s="93"/>
       <c r="K8" s="91"/>
-      <c r="L8" s="313"/>
-      <c r="M8" s="323"/>
-      <c r="N8" s="319"/>
-      <c r="O8" s="319"/>
-      <c r="P8" s="324"/>
+      <c r="L8" s="311"/>
+      <c r="M8" s="321"/>
+      <c r="N8" s="317"/>
+      <c r="O8" s="317"/>
+      <c r="P8" s="322"/>
       <c r="R8" s="19"/>
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
     </row>
     <row r="9" spans="1:20" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="107"/>
-      <c r="B9" s="211"/>
-      <c r="C9" s="211"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="210"/>
       <c r="D9" s="156" t="s">
         <v>28</v>
       </c>
@@ -8135,34 +8139,34 @@
       <c r="I9" s="158"/>
       <c r="J9" s="93"/>
       <c r="K9" s="94"/>
-      <c r="L9" s="314"/>
-      <c r="M9" s="323"/>
-      <c r="N9" s="319"/>
-      <c r="O9" s="319"/>
-      <c r="P9" s="324"/>
+      <c r="L9" s="312"/>
+      <c r="M9" s="321"/>
+      <c r="N9" s="317"/>
+      <c r="O9" s="317"/>
+      <c r="P9" s="322"/>
       <c r="R9" s="19"/>
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
     </row>
     <row r="10" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="107"/>
-      <c r="B10" s="211"/>
-      <c r="C10" s="211"/>
+      <c r="B10" s="210"/>
+      <c r="C10" s="210"/>
       <c r="D10" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="251"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
+      <c r="E10" s="250"/>
+      <c r="F10" s="209"/>
+      <c r="G10" s="209"/>
       <c r="H10" s="70"/>
       <c r="I10" s="71"/>
       <c r="J10" s="90"/>
       <c r="K10" s="94"/>
-      <c r="L10" s="313"/>
-      <c r="M10" s="323"/>
-      <c r="N10" s="319"/>
-      <c r="O10" s="319"/>
-      <c r="P10" s="324"/>
+      <c r="L10" s="311"/>
+      <c r="M10" s="321"/>
+      <c r="N10" s="317"/>
+      <c r="O10" s="317"/>
+      <c r="P10" s="322"/>
       <c r="R10" s="19"/>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
@@ -8171,19 +8175,19 @@
       <c r="A11" s="110"/>
       <c r="B11" s="111"/>
       <c r="C11" s="111"/>
-      <c r="D11" s="252"/>
-      <c r="E11" s="250"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="250"/>
-      <c r="H11" s="253"/>
-      <c r="I11" s="254"/>
-      <c r="J11" s="222"/>
-      <c r="K11" s="213"/>
-      <c r="L11" s="315"/>
-      <c r="M11" s="323"/>
-      <c r="N11" s="319"/>
-      <c r="O11" s="319"/>
-      <c r="P11" s="324"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="249"/>
+      <c r="F11" s="252"/>
+      <c r="G11" s="249"/>
+      <c r="H11" s="252"/>
+      <c r="I11" s="253"/>
+      <c r="J11" s="221"/>
+      <c r="K11" s="212"/>
+      <c r="L11" s="313"/>
+      <c r="M11" s="321"/>
+      <c r="N11" s="317"/>
+      <c r="O11" s="317"/>
+      <c r="P11" s="322"/>
       <c r="R11" s="19"/>
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
@@ -8192,76 +8196,76 @@
       <c r="A12" s="104"/>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
-      <c r="D12" s="215" t="s">
+      <c r="D12" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="216"/>
-      <c r="F12" s="217"/>
-      <c r="G12" s="218"/>
-      <c r="H12" s="218"/>
-      <c r="I12" s="219"/>
+      <c r="E12" s="215"/>
+      <c r="F12" s="216"/>
+      <c r="G12" s="217"/>
+      <c r="H12" s="217"/>
+      <c r="I12" s="218"/>
       <c r="J12" s="88"/>
       <c r="K12" s="89"/>
-      <c r="L12" s="312"/>
-      <c r="M12" s="320"/>
-      <c r="N12" s="321"/>
-      <c r="O12" s="321"/>
-      <c r="P12" s="322"/>
+      <c r="L12" s="310"/>
+      <c r="M12" s="318"/>
+      <c r="N12" s="319"/>
+      <c r="O12" s="319"/>
+      <c r="P12" s="320"/>
       <c r="R12" s="19"/>
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
     </row>
     <row r="13" spans="1:20" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="107"/>
-      <c r="B13" s="211"/>
-      <c r="C13" s="211"/>
-      <c r="D13" s="259" t="s">
+      <c r="B13" s="210"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="258" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="260"/>
-      <c r="F13" s="260"/>
-      <c r="G13" s="260"/>
-      <c r="H13" s="260"/>
-      <c r="I13" s="261"/>
+      <c r="E13" s="259"/>
+      <c r="F13" s="259"/>
+      <c r="G13" s="259"/>
+      <c r="H13" s="259"/>
+      <c r="I13" s="260"/>
       <c r="J13" s="93"/>
       <c r="K13" s="94"/>
-      <c r="L13" s="314"/>
-      <c r="M13" s="323"/>
-      <c r="N13" s="319"/>
-      <c r="O13" s="319"/>
-      <c r="P13" s="324"/>
+      <c r="L13" s="312"/>
+      <c r="M13" s="321"/>
+      <c r="N13" s="317"/>
+      <c r="O13" s="317"/>
+      <c r="P13" s="322"/>
       <c r="R13" s="19"/>
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
     </row>
     <row r="14" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="107"/>
-      <c r="B14" s="211"/>
-      <c r="C14" s="211"/>
-      <c r="D14" s="262" t="s">
+      <c r="B14" s="210"/>
+      <c r="C14" s="210"/>
+      <c r="D14" s="261" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="263"/>
+      <c r="E14" s="262"/>
       <c r="F14" s="56"/>
-      <c r="G14" s="216"/>
+      <c r="G14" s="215"/>
       <c r="H14" s="56"/>
       <c r="I14" s="57"/>
       <c r="J14" s="90"/>
       <c r="K14" s="91"/>
-      <c r="L14" s="313"/>
-      <c r="M14" s="323"/>
-      <c r="N14" s="319"/>
-      <c r="O14" s="319"/>
-      <c r="P14" s="324"/>
+      <c r="L14" s="311"/>
+      <c r="M14" s="321"/>
+      <c r="N14" s="317"/>
+      <c r="O14" s="317"/>
+      <c r="P14" s="322"/>
       <c r="R14" s="19"/>
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
     </row>
     <row r="15" spans="1:20" s="18" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="107"/>
-      <c r="B15" s="220"/>
-      <c r="C15" s="211"/>
-      <c r="D15" s="345"/>
+      <c r="B15" s="219"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="343"/>
       <c r="E15" s="159" t="s">
         <v>22</v>
       </c>
@@ -8271,43 +8275,43 @@
       <c r="I15" s="160"/>
       <c r="J15" s="93"/>
       <c r="K15" s="91"/>
-      <c r="L15" s="313"/>
-      <c r="M15" s="329"/>
-      <c r="N15" s="328"/>
-      <c r="O15" s="328"/>
-      <c r="P15" s="330"/>
+      <c r="L15" s="311"/>
+      <c r="M15" s="327"/>
+      <c r="N15" s="326"/>
+      <c r="O15" s="326"/>
+      <c r="P15" s="328"/>
       <c r="R15" s="19"/>
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
     </row>
     <row r="16" spans="1:20" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="107"/>
-      <c r="B16" s="211"/>
-      <c r="C16" s="211"/>
-      <c r="D16" s="346"/>
-      <c r="E16" s="221" t="s">
+      <c r="B16" s="210"/>
+      <c r="C16" s="210"/>
+      <c r="D16" s="344"/>
+      <c r="E16" s="220" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="221"/>
-      <c r="G16" s="221"/>
-      <c r="H16" s="221"/>
+      <c r="F16" s="220"/>
+      <c r="G16" s="220"/>
+      <c r="H16" s="220"/>
       <c r="I16" s="161"/>
       <c r="J16" s="90"/>
       <c r="K16" s="94"/>
-      <c r="L16" s="313"/>
-      <c r="M16" s="329"/>
-      <c r="N16" s="328"/>
-      <c r="O16" s="328"/>
-      <c r="P16" s="330"/>
+      <c r="L16" s="311"/>
+      <c r="M16" s="327"/>
+      <c r="N16" s="326"/>
+      <c r="O16" s="326"/>
+      <c r="P16" s="328"/>
       <c r="R16" s="19"/>
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
     </row>
     <row r="17" spans="1:20" s="18" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="107"/>
-      <c r="B17" s="211"/>
-      <c r="C17" s="211"/>
-      <c r="D17" s="347"/>
+      <c r="B17" s="210"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="345"/>
       <c r="E17" s="179" t="s">
         <v>57</v>
       </c>
@@ -8317,20 +8321,20 @@
       <c r="I17" s="180"/>
       <c r="J17" s="90"/>
       <c r="K17" s="91"/>
-      <c r="L17" s="314"/>
-      <c r="M17" s="329"/>
-      <c r="N17" s="328"/>
-      <c r="O17" s="328"/>
-      <c r="P17" s="330"/>
+      <c r="L17" s="312"/>
+      <c r="M17" s="327"/>
+      <c r="N17" s="326"/>
+      <c r="O17" s="326"/>
+      <c r="P17" s="328"/>
       <c r="R17" s="19"/>
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
     </row>
     <row r="18" spans="1:20" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="107"/>
-      <c r="B18" s="211"/>
-      <c r="C18" s="211"/>
-      <c r="D18" s="255" t="s">
+      <c r="B18" s="210"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="254" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="83"/>
@@ -8340,19 +8344,19 @@
       <c r="I18" s="85"/>
       <c r="J18" s="93"/>
       <c r="K18" s="94"/>
-      <c r="L18" s="313"/>
-      <c r="M18" s="329"/>
-      <c r="N18" s="328"/>
-      <c r="O18" s="328"/>
-      <c r="P18" s="330"/>
+      <c r="L18" s="311"/>
+      <c r="M18" s="327"/>
+      <c r="N18" s="326"/>
+      <c r="O18" s="326"/>
+      <c r="P18" s="328"/>
       <c r="R18" s="19"/>
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
     </row>
     <row r="19" spans="1:20" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="107"/>
-      <c r="B19" s="211"/>
-      <c r="C19" s="211"/>
+      <c r="B19" s="210"/>
+      <c r="C19" s="210"/>
       <c r="D19" s="113" t="s">
         <v>34</v>
       </c>
@@ -8363,34 +8367,34 @@
       <c r="I19" s="85"/>
       <c r="J19" s="93"/>
       <c r="K19" s="94"/>
-      <c r="L19" s="314"/>
-      <c r="M19" s="329"/>
-      <c r="N19" s="328"/>
-      <c r="O19" s="328"/>
-      <c r="P19" s="330"/>
+      <c r="L19" s="312"/>
+      <c r="M19" s="327"/>
+      <c r="N19" s="326"/>
+      <c r="O19" s="326"/>
+      <c r="P19" s="328"/>
       <c r="R19" s="19"/>
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
     </row>
     <row r="20" spans="1:20" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="107"/>
-      <c r="B20" s="211"/>
-      <c r="C20" s="211"/>
+      <c r="B20" s="210"/>
+      <c r="C20" s="210"/>
       <c r="D20" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="256"/>
-      <c r="F20" s="257"/>
-      <c r="G20" s="257"/>
-      <c r="H20" s="257"/>
-      <c r="I20" s="258"/>
+      <c r="E20" s="255"/>
+      <c r="F20" s="256"/>
+      <c r="G20" s="256"/>
+      <c r="H20" s="256"/>
+      <c r="I20" s="257"/>
       <c r="J20" s="90"/>
       <c r="K20" s="94"/>
-      <c r="L20" s="313"/>
-      <c r="M20" s="329"/>
-      <c r="N20" s="328"/>
-      <c r="O20" s="328"/>
-      <c r="P20" s="330"/>
+      <c r="L20" s="311"/>
+      <c r="M20" s="327"/>
+      <c r="N20" s="326"/>
+      <c r="O20" s="326"/>
+      <c r="P20" s="328"/>
       <c r="R20" s="19"/>
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
@@ -8399,19 +8403,19 @@
       <c r="A21" s="110"/>
       <c r="B21" s="111"/>
       <c r="C21" s="111"/>
-      <c r="D21" s="252"/>
-      <c r="E21" s="250"/>
-      <c r="F21" s="250"/>
-      <c r="G21" s="253"/>
-      <c r="H21" s="253"/>
-      <c r="I21" s="264"/>
-      <c r="J21" s="222"/>
-      <c r="K21" s="223"/>
-      <c r="L21" s="315"/>
-      <c r="M21" s="323"/>
-      <c r="N21" s="319"/>
-      <c r="O21" s="319"/>
-      <c r="P21" s="324"/>
+      <c r="D21" s="251"/>
+      <c r="E21" s="249"/>
+      <c r="F21" s="249"/>
+      <c r="G21" s="252"/>
+      <c r="H21" s="252"/>
+      <c r="I21" s="263"/>
+      <c r="J21" s="221"/>
+      <c r="K21" s="222"/>
+      <c r="L21" s="313"/>
+      <c r="M21" s="321"/>
+      <c r="N21" s="317"/>
+      <c r="O21" s="317"/>
+      <c r="P21" s="322"/>
       <c r="R21" s="19"/>
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
@@ -8420,29 +8424,29 @@
       <c r="A22" s="104"/>
       <c r="B22" s="105"/>
       <c r="C22" s="105"/>
-      <c r="D22" s="209" t="s">
+      <c r="D22" s="208" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="214"/>
-      <c r="F22" s="214"/>
-      <c r="G22" s="210"/>
-      <c r="H22" s="210"/>
+      <c r="E22" s="213"/>
+      <c r="F22" s="213"/>
+      <c r="G22" s="209"/>
+      <c r="H22" s="209"/>
       <c r="I22" s="78"/>
       <c r="J22" s="88"/>
-      <c r="K22" s="226"/>
-      <c r="L22" s="312"/>
-      <c r="M22" s="320"/>
-      <c r="N22" s="321"/>
-      <c r="O22" s="321"/>
-      <c r="P22" s="322"/>
+      <c r="K22" s="225"/>
+      <c r="L22" s="310"/>
+      <c r="M22" s="318"/>
+      <c r="N22" s="319"/>
+      <c r="O22" s="319"/>
+      <c r="P22" s="320"/>
       <c r="R22" s="19"/>
       <c r="S22" s="20"/>
       <c r="T22" s="20"/>
     </row>
     <row r="23" spans="1:20" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="107"/>
-      <c r="B23" s="211"/>
-      <c r="C23" s="211"/>
+      <c r="B23" s="210"/>
+      <c r="C23" s="210"/>
       <c r="D23" s="181" t="s">
         <v>23</v>
       </c>
@@ -8453,19 +8457,19 @@
       <c r="I23" s="183"/>
       <c r="J23" s="95"/>
       <c r="K23" s="91"/>
-      <c r="L23" s="313"/>
-      <c r="M23" s="323"/>
-      <c r="N23" s="319"/>
-      <c r="O23" s="319"/>
-      <c r="P23" s="324"/>
+      <c r="L23" s="311"/>
+      <c r="M23" s="321"/>
+      <c r="N23" s="317"/>
+      <c r="O23" s="317"/>
+      <c r="P23" s="322"/>
       <c r="R23" s="19"/>
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
     </row>
     <row r="24" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="107"/>
-      <c r="B24" s="211"/>
-      <c r="C24" s="211"/>
+      <c r="B24" s="210"/>
+      <c r="C24" s="210"/>
       <c r="D24" s="73" t="s">
         <v>40</v>
       </c>
@@ -8476,19 +8480,19 @@
       <c r="I24" s="75"/>
       <c r="J24" s="93"/>
       <c r="K24" s="94"/>
-      <c r="L24" s="314"/>
-      <c r="M24" s="323"/>
-      <c r="N24" s="319"/>
-      <c r="O24" s="319"/>
-      <c r="P24" s="324"/>
+      <c r="L24" s="312"/>
+      <c r="M24" s="321"/>
+      <c r="N24" s="317"/>
+      <c r="O24" s="317"/>
+      <c r="P24" s="322"/>
       <c r="R24" s="19"/>
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
     </row>
     <row r="25" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="107"/>
-      <c r="B25" s="211"/>
-      <c r="C25" s="211"/>
+      <c r="B25" s="210"/>
+      <c r="C25" s="210"/>
       <c r="D25" s="58" t="s">
         <v>41</v>
       </c>
@@ -8499,19 +8503,19 @@
       <c r="I25" s="66"/>
       <c r="J25" s="93"/>
       <c r="K25" s="91"/>
-      <c r="L25" s="313"/>
-      <c r="M25" s="323"/>
-      <c r="N25" s="319"/>
-      <c r="O25" s="319"/>
-      <c r="P25" s="324"/>
+      <c r="L25" s="311"/>
+      <c r="M25" s="321"/>
+      <c r="N25" s="317"/>
+      <c r="O25" s="317"/>
+      <c r="P25" s="322"/>
       <c r="R25" s="19"/>
       <c r="S25" s="20"/>
       <c r="T25" s="20"/>
     </row>
     <row r="26" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="107"/>
-      <c r="B26" s="211"/>
-      <c r="C26" s="211"/>
+      <c r="B26" s="210"/>
+      <c r="C26" s="210"/>
       <c r="D26" s="58" t="s">
         <v>42</v>
       </c>
@@ -8522,109 +8526,109 @@
       <c r="I26" s="66"/>
       <c r="J26" s="90"/>
       <c r="K26" s="94"/>
-      <c r="L26" s="313"/>
-      <c r="M26" s="323"/>
-      <c r="N26" s="319"/>
-      <c r="O26" s="319"/>
-      <c r="P26" s="324"/>
+      <c r="L26" s="311"/>
+      <c r="M26" s="321"/>
+      <c r="N26" s="317"/>
+      <c r="O26" s="317"/>
+      <c r="P26" s="322"/>
       <c r="R26" s="19"/>
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
     </row>
     <row r="27" spans="1:20" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="107"/>
-      <c r="B27" s="211"/>
-      <c r="C27" s="211"/>
-      <c r="D27" s="267" t="s">
+      <c r="B27" s="210"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="266" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="265"/>
-      <c r="F27" s="265"/>
-      <c r="G27" s="265"/>
-      <c r="H27" s="265"/>
-      <c r="I27" s="266"/>
+      <c r="E27" s="264"/>
+      <c r="F27" s="264"/>
+      <c r="G27" s="264"/>
+      <c r="H27" s="264"/>
+      <c r="I27" s="265"/>
       <c r="J27" s="90"/>
       <c r="K27" s="94"/>
-      <c r="L27" s="313"/>
-      <c r="M27" s="323"/>
-      <c r="N27" s="319"/>
-      <c r="O27" s="319"/>
-      <c r="P27" s="324"/>
+      <c r="L27" s="311"/>
+      <c r="M27" s="321"/>
+      <c r="N27" s="317"/>
+      <c r="O27" s="317"/>
+      <c r="P27" s="322"/>
       <c r="R27" s="19"/>
       <c r="S27" s="20"/>
       <c r="T27" s="20"/>
     </row>
     <row r="28" spans="1:20" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="107"/>
-      <c r="B28" s="211"/>
-      <c r="C28" s="211"/>
-      <c r="D28" s="252"/>
-      <c r="E28" s="250"/>
-      <c r="F28" s="250"/>
-      <c r="G28" s="253"/>
-      <c r="H28" s="253"/>
-      <c r="I28" s="264"/>
+      <c r="B28" s="210"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="251"/>
+      <c r="E28" s="249"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="252"/>
+      <c r="H28" s="252"/>
+      <c r="I28" s="263"/>
       <c r="J28" s="90"/>
       <c r="K28" s="91"/>
-      <c r="L28" s="313"/>
-      <c r="M28" s="323"/>
-      <c r="N28" s="319"/>
-      <c r="O28" s="319"/>
-      <c r="P28" s="324"/>
+      <c r="L28" s="311"/>
+      <c r="M28" s="321"/>
+      <c r="N28" s="317"/>
+      <c r="O28" s="317"/>
+      <c r="P28" s="322"/>
       <c r="R28" s="19"/>
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
     </row>
     <row r="29" spans="1:20" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="107"/>
-      <c r="B29" s="211"/>
+      <c r="B29" s="210"/>
       <c r="C29" s="109"/>
-      <c r="D29" s="270" t="s">
+      <c r="D29" s="269" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="271"/>
-      <c r="F29" s="271"/>
-      <c r="G29" s="271"/>
-      <c r="H29" s="271"/>
-      <c r="I29" s="272"/>
+      <c r="E29" s="270"/>
+      <c r="F29" s="270"/>
+      <c r="G29" s="270"/>
+      <c r="H29" s="270"/>
+      <c r="I29" s="271"/>
       <c r="J29" s="90"/>
       <c r="K29" s="91"/>
-      <c r="L29" s="313"/>
-      <c r="M29" s="323"/>
-      <c r="N29" s="319"/>
-      <c r="O29" s="319"/>
-      <c r="P29" s="324"/>
+      <c r="L29" s="311"/>
+      <c r="M29" s="321"/>
+      <c r="N29" s="317"/>
+      <c r="O29" s="317"/>
+      <c r="P29" s="322"/>
       <c r="R29" s="19"/>
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
     </row>
     <row r="30" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="107"/>
-      <c r="B30" s="211"/>
-      <c r="C30" s="211"/>
-      <c r="D30" s="273" t="s">
+      <c r="B30" s="210"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="272" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="274"/>
-      <c r="F30" s="274"/>
-      <c r="G30" s="274"/>
-      <c r="H30" s="274"/>
-      <c r="I30" s="275"/>
+      <c r="E30" s="273"/>
+      <c r="F30" s="273"/>
+      <c r="G30" s="273"/>
+      <c r="H30" s="273"/>
+      <c r="I30" s="274"/>
       <c r="J30" s="93"/>
       <c r="K30" s="94"/>
-      <c r="L30" s="314"/>
-      <c r="M30" s="323"/>
-      <c r="N30" s="319"/>
-      <c r="O30" s="319"/>
-      <c r="P30" s="324"/>
+      <c r="L30" s="312"/>
+      <c r="M30" s="321"/>
+      <c r="N30" s="317"/>
+      <c r="O30" s="317"/>
+      <c r="P30" s="322"/>
       <c r="R30" s="19"/>
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
     </row>
     <row r="31" spans="1:20" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="107"/>
-      <c r="B31" s="211"/>
-      <c r="C31" s="211"/>
+      <c r="B31" s="210"/>
+      <c r="C31" s="210"/>
       <c r="D31" s="117" t="s">
         <v>45</v>
       </c>
@@ -8635,195 +8639,195 @@
       <c r="I31" s="100"/>
       <c r="J31" s="90"/>
       <c r="K31" s="91"/>
-      <c r="L31" s="313"/>
-      <c r="M31" s="323"/>
-      <c r="N31" s="220"/>
-      <c r="O31" s="319"/>
-      <c r="P31" s="324"/>
+      <c r="L31" s="311"/>
+      <c r="M31" s="321"/>
+      <c r="N31" s="219"/>
+      <c r="O31" s="317"/>
+      <c r="P31" s="322"/>
       <c r="R31" s="19"/>
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
     </row>
     <row r="32" spans="1:20" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="107"/>
-      <c r="B32" s="211"/>
-      <c r="C32" s="220"/>
-      <c r="D32" s="276"/>
-      <c r="E32" s="221" t="s">
+      <c r="B32" s="210"/>
+      <c r="C32" s="219"/>
+      <c r="D32" s="346"/>
+      <c r="E32" s="220" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="221"/>
-      <c r="G32" s="221"/>
-      <c r="H32" s="221"/>
+      <c r="F32" s="220"/>
+      <c r="G32" s="220"/>
+      <c r="H32" s="220"/>
       <c r="I32" s="161"/>
       <c r="J32" s="93"/>
       <c r="K32" s="94"/>
-      <c r="L32" s="313"/>
-      <c r="M32" s="323"/>
-      <c r="N32" s="319"/>
-      <c r="O32" s="319"/>
-      <c r="P32" s="324"/>
+      <c r="L32" s="311"/>
+      <c r="M32" s="321"/>
+      <c r="N32" s="317"/>
+      <c r="O32" s="317"/>
+      <c r="P32" s="322"/>
       <c r="R32" s="19"/>
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
     </row>
     <row r="33" spans="1:20" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="107"/>
-      <c r="B33" s="211"/>
-      <c r="C33" s="211"/>
-      <c r="D33" s="276"/>
-      <c r="E33" s="221" t="s">
+      <c r="B33" s="210"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="347"/>
+      <c r="E33" s="220" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="221"/>
-      <c r="G33" s="221"/>
-      <c r="H33" s="221"/>
+      <c r="F33" s="220"/>
+      <c r="G33" s="220"/>
+      <c r="H33" s="220"/>
       <c r="I33" s="161"/>
       <c r="J33" s="90"/>
       <c r="K33" s="94"/>
-      <c r="L33" s="313"/>
-      <c r="M33" s="323"/>
-      <c r="N33" s="319"/>
-      <c r="O33" s="319"/>
-      <c r="P33" s="324"/>
+      <c r="L33" s="311"/>
+      <c r="M33" s="321"/>
+      <c r="N33" s="317"/>
+      <c r="O33" s="317"/>
+      <c r="P33" s="322"/>
       <c r="R33" s="19"/>
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
     </row>
     <row r="34" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="107"/>
-      <c r="B34" s="211"/>
-      <c r="C34" s="211"/>
-      <c r="D34" s="276"/>
-      <c r="E34" s="221" t="s">
+      <c r="B34" s="210"/>
+      <c r="C34" s="210"/>
+      <c r="D34" s="347"/>
+      <c r="E34" s="220" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="221"/>
-      <c r="G34" s="221"/>
-      <c r="H34" s="221"/>
+      <c r="F34" s="220"/>
+      <c r="G34" s="220"/>
+      <c r="H34" s="220"/>
       <c r="I34" s="161"/>
       <c r="J34" s="93"/>
       <c r="K34" s="91"/>
-      <c r="L34" s="313"/>
-      <c r="M34" s="323"/>
-      <c r="N34" s="319"/>
-      <c r="O34" s="319"/>
-      <c r="P34" s="324"/>
+      <c r="L34" s="311"/>
+      <c r="M34" s="321"/>
+      <c r="N34" s="317"/>
+      <c r="O34" s="317"/>
+      <c r="P34" s="322"/>
       <c r="R34" s="19"/>
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
     </row>
     <row r="35" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="107"/>
-      <c r="B35" s="211"/>
-      <c r="C35" s="211"/>
-      <c r="D35" s="276"/>
-      <c r="E35" s="221" t="s">
+      <c r="B35" s="210"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="347"/>
+      <c r="E35" s="220" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="221"/>
-      <c r="G35" s="221"/>
-      <c r="H35" s="221"/>
+      <c r="F35" s="220"/>
+      <c r="G35" s="220"/>
+      <c r="H35" s="220"/>
       <c r="I35" s="161"/>
       <c r="J35" s="93"/>
       <c r="K35" s="94"/>
-      <c r="L35" s="313"/>
-      <c r="M35" s="323"/>
-      <c r="N35" s="319"/>
-      <c r="O35" s="319"/>
-      <c r="P35" s="324"/>
+      <c r="L35" s="311"/>
+      <c r="M35" s="321"/>
+      <c r="N35" s="317"/>
+      <c r="O35" s="317"/>
+      <c r="P35" s="322"/>
       <c r="R35" s="19"/>
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
     </row>
     <row r="36" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="107"/>
-      <c r="B36" s="211"/>
-      <c r="C36" s="211"/>
-      <c r="D36" s="276"/>
-      <c r="E36" s="221" t="s">
+      <c r="B36" s="210"/>
+      <c r="C36" s="210"/>
+      <c r="D36" s="347"/>
+      <c r="E36" s="220" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="221"/>
-      <c r="G36" s="221"/>
-      <c r="H36" s="221"/>
+      <c r="F36" s="220"/>
+      <c r="G36" s="220"/>
+      <c r="H36" s="220"/>
       <c r="I36" s="161"/>
       <c r="J36" s="90"/>
       <c r="K36" s="94"/>
-      <c r="L36" s="313"/>
-      <c r="M36" s="323"/>
-      <c r="N36" s="319"/>
-      <c r="O36" s="319"/>
-      <c r="P36" s="324"/>
+      <c r="L36" s="311"/>
+      <c r="M36" s="321"/>
+      <c r="N36" s="317"/>
+      <c r="O36" s="317"/>
+      <c r="P36" s="322"/>
       <c r="R36" s="19"/>
       <c r="S36" s="20"/>
       <c r="T36" s="20"/>
     </row>
     <row r="37" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="227"/>
-      <c r="B37" s="211"/>
-      <c r="C37" s="211"/>
-      <c r="D37" s="276"/>
-      <c r="E37" s="221" t="s">
+      <c r="A37" s="226"/>
+      <c r="B37" s="210"/>
+      <c r="C37" s="210"/>
+      <c r="D37" s="348"/>
+      <c r="E37" s="220" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="221"/>
-      <c r="G37" s="221"/>
-      <c r="H37" s="221"/>
+      <c r="F37" s="220"/>
+      <c r="G37" s="220"/>
+      <c r="H37" s="220"/>
       <c r="I37" s="161"/>
       <c r="J37" s="90"/>
       <c r="K37" s="91"/>
-      <c r="L37" s="313"/>
-      <c r="M37" s="323"/>
-      <c r="N37" s="319"/>
-      <c r="O37" s="319"/>
-      <c r="P37" s="324"/>
+      <c r="L37" s="311"/>
+      <c r="M37" s="321"/>
+      <c r="N37" s="317"/>
+      <c r="O37" s="317"/>
+      <c r="P37" s="322"/>
       <c r="R37" s="19"/>
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
     </row>
     <row r="38" spans="1:20" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="107"/>
-      <c r="B38" s="211"/>
-      <c r="C38" s="211"/>
+      <c r="B38" s="210"/>
+      <c r="C38" s="210"/>
       <c r="D38" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="228"/>
-      <c r="F38" s="228"/>
-      <c r="G38" s="228"/>
-      <c r="H38" s="228"/>
+      <c r="E38" s="227"/>
+      <c r="F38" s="227"/>
+      <c r="G38" s="227"/>
+      <c r="H38" s="227"/>
       <c r="I38" s="163"/>
       <c r="J38" s="93"/>
       <c r="K38" s="94"/>
-      <c r="L38" s="313"/>
-      <c r="M38" s="323"/>
-      <c r="N38" s="319"/>
-      <c r="O38" s="319"/>
-      <c r="P38" s="324"/>
+      <c r="L38" s="311"/>
+      <c r="M38" s="321"/>
+      <c r="N38" s="317"/>
+      <c r="O38" s="317"/>
+      <c r="P38" s="322"/>
       <c r="R38" s="19"/>
       <c r="S38" s="20"/>
       <c r="T38" s="20"/>
     </row>
     <row r="39" spans="1:20" s="18" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="107"/>
-      <c r="B39" s="211"/>
-      <c r="C39" s="211"/>
+      <c r="B39" s="210"/>
+      <c r="C39" s="210"/>
       <c r="D39" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="268"/>
-      <c r="F39" s="268"/>
-      <c r="G39" s="268"/>
-      <c r="H39" s="268"/>
-      <c r="I39" s="269"/>
+      <c r="E39" s="267"/>
+      <c r="F39" s="267"/>
+      <c r="G39" s="267"/>
+      <c r="H39" s="267"/>
+      <c r="I39" s="268"/>
       <c r="J39" s="90"/>
       <c r="K39" s="94"/>
-      <c r="L39" s="313"/>
-      <c r="M39" s="323"/>
-      <c r="N39" s="319"/>
-      <c r="O39" s="319"/>
-      <c r="P39" s="324"/>
+      <c r="L39" s="311"/>
+      <c r="M39" s="321"/>
+      <c r="N39" s="317"/>
+      <c r="O39" s="317"/>
+      <c r="P39" s="322"/>
       <c r="R39" s="19"/>
       <c r="S39" s="20"/>
       <c r="T39" s="20"/>
@@ -8832,19 +8836,19 @@
       <c r="A40" s="110"/>
       <c r="B40" s="111"/>
       <c r="C40" s="111"/>
-      <c r="D40" s="277"/>
-      <c r="E40" s="212"/>
-      <c r="F40" s="212"/>
-      <c r="G40" s="278"/>
-      <c r="H40" s="278"/>
-      <c r="I40" s="279"/>
-      <c r="J40" s="222"/>
-      <c r="K40" s="213"/>
-      <c r="L40" s="315"/>
-      <c r="M40" s="323"/>
-      <c r="N40" s="319"/>
-      <c r="O40" s="319"/>
-      <c r="P40" s="324"/>
+      <c r="D40" s="275"/>
+      <c r="E40" s="211"/>
+      <c r="F40" s="211"/>
+      <c r="G40" s="276"/>
+      <c r="H40" s="276"/>
+      <c r="I40" s="277"/>
+      <c r="J40" s="221"/>
+      <c r="K40" s="212"/>
+      <c r="L40" s="313"/>
+      <c r="M40" s="321"/>
+      <c r="N40" s="317"/>
+      <c r="O40" s="317"/>
+      <c r="P40" s="322"/>
       <c r="R40" s="19"/>
       <c r="S40" s="20"/>
       <c r="T40" s="20"/>
@@ -8853,29 +8857,29 @@
       <c r="A41" s="104"/>
       <c r="B41" s="105"/>
       <c r="C41" s="106"/>
-      <c r="D41" s="209" t="s">
+      <c r="D41" s="208" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="214"/>
-      <c r="F41" s="214"/>
-      <c r="G41" s="210"/>
-      <c r="H41" s="210"/>
+      <c r="E41" s="213"/>
+      <c r="F41" s="213"/>
+      <c r="G41" s="209"/>
+      <c r="H41" s="209"/>
       <c r="I41" s="78"/>
       <c r="J41" s="88"/>
       <c r="K41" s="89"/>
-      <c r="L41" s="312"/>
-      <c r="M41" s="320"/>
-      <c r="N41" s="321"/>
-      <c r="O41" s="321"/>
-      <c r="P41" s="322"/>
+      <c r="L41" s="310"/>
+      <c r="M41" s="318"/>
+      <c r="N41" s="319"/>
+      <c r="O41" s="319"/>
+      <c r="P41" s="320"/>
       <c r="R41" s="19"/>
       <c r="S41" s="20"/>
       <c r="T41" s="20"/>
     </row>
     <row r="42" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="107"/>
-      <c r="B42" s="211"/>
-      <c r="C42" s="211"/>
+      <c r="B42" s="210"/>
+      <c r="C42" s="210"/>
       <c r="D42" s="187" t="s">
         <v>38</v>
       </c>
@@ -8886,42 +8890,42 @@
       <c r="I42" s="189"/>
       <c r="J42" s="90"/>
       <c r="K42" s="91"/>
-      <c r="L42" s="313"/>
-      <c r="M42" s="323"/>
-      <c r="N42" s="319"/>
-      <c r="O42" s="319"/>
-      <c r="P42" s="324"/>
+      <c r="L42" s="311"/>
+      <c r="M42" s="321"/>
+      <c r="N42" s="317"/>
+      <c r="O42" s="317"/>
+      <c r="P42" s="322"/>
       <c r="R42" s="19"/>
       <c r="S42" s="20"/>
       <c r="T42" s="20"/>
     </row>
     <row r="43" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="107"/>
-      <c r="B43" s="211"/>
-      <c r="C43" s="211"/>
+      <c r="B43" s="210"/>
+      <c r="C43" s="210"/>
       <c r="D43" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="232"/>
-      <c r="F43" s="232"/>
-      <c r="G43" s="232"/>
-      <c r="H43" s="232"/>
+      <c r="E43" s="231"/>
+      <c r="F43" s="231"/>
+      <c r="G43" s="231"/>
+      <c r="H43" s="231"/>
       <c r="I43" s="86"/>
       <c r="J43" s="96"/>
       <c r="K43" s="94"/>
-      <c r="L43" s="313"/>
-      <c r="M43" s="323"/>
-      <c r="N43" s="319"/>
-      <c r="O43" s="319"/>
-      <c r="P43" s="324"/>
+      <c r="L43" s="311"/>
+      <c r="M43" s="321"/>
+      <c r="N43" s="317"/>
+      <c r="O43" s="317"/>
+      <c r="P43" s="322"/>
       <c r="R43" s="19"/>
       <c r="S43" s="20"/>
       <c r="T43" s="20"/>
     </row>
     <row r="44" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="107"/>
-      <c r="B44" s="211"/>
-      <c r="C44" s="211"/>
+      <c r="B44" s="210"/>
+      <c r="C44" s="210"/>
       <c r="D44" s="58" t="s">
         <v>55</v>
       </c>
@@ -8932,19 +8936,19 @@
       <c r="I44" s="66"/>
       <c r="J44" s="96"/>
       <c r="K44" s="91"/>
-      <c r="L44" s="313"/>
-      <c r="M44" s="323"/>
-      <c r="N44" s="319"/>
-      <c r="O44" s="319"/>
-      <c r="P44" s="324"/>
+      <c r="L44" s="311"/>
+      <c r="M44" s="321"/>
+      <c r="N44" s="317"/>
+      <c r="O44" s="317"/>
+      <c r="P44" s="322"/>
       <c r="R44" s="19"/>
       <c r="S44" s="20"/>
       <c r="T44" s="20"/>
     </row>
     <row r="45" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="107"/>
-      <c r="B45" s="211"/>
-      <c r="C45" s="211"/>
+      <c r="B45" s="210"/>
+      <c r="C45" s="210"/>
       <c r="D45" s="58" t="s">
         <v>59</v>
       </c>
@@ -8955,19 +8959,19 @@
       <c r="I45" s="66"/>
       <c r="J45" s="95"/>
       <c r="K45" s="91"/>
-      <c r="L45" s="314"/>
-      <c r="M45" s="323"/>
-      <c r="N45" s="319"/>
-      <c r="O45" s="319"/>
-      <c r="P45" s="324"/>
+      <c r="L45" s="312"/>
+      <c r="M45" s="321"/>
+      <c r="N45" s="317"/>
+      <c r="O45" s="317"/>
+      <c r="P45" s="322"/>
       <c r="R45" s="19"/>
       <c r="S45" s="20"/>
       <c r="T45" s="20"/>
     </row>
     <row r="46" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="107"/>
-      <c r="B46" s="211"/>
-      <c r="C46" s="211"/>
+      <c r="B46" s="210"/>
+      <c r="C46" s="210"/>
       <c r="D46" s="76" t="s">
         <v>60</v>
       </c>
@@ -8979,63 +8983,63 @@
       <c r="J46" s="90"/>
       <c r="K46" s="93"/>
       <c r="L46" s="118"/>
-      <c r="M46" s="323"/>
-      <c r="N46" s="319"/>
-      <c r="O46" s="319"/>
-      <c r="P46" s="324"/>
+      <c r="M46" s="321"/>
+      <c r="N46" s="317"/>
+      <c r="O46" s="317"/>
+      <c r="P46" s="322"/>
       <c r="R46" s="19"/>
       <c r="S46" s="20"/>
       <c r="T46" s="20"/>
     </row>
     <row r="47" spans="1:20" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="107"/>
-      <c r="B47" s="211"/>
-      <c r="C47" s="211"/>
-      <c r="D47" s="277"/>
-      <c r="E47" s="283"/>
-      <c r="F47" s="212"/>
-      <c r="G47" s="278"/>
-      <c r="H47" s="278"/>
-      <c r="I47" s="279"/>
+      <c r="B47" s="210"/>
+      <c r="C47" s="210"/>
+      <c r="D47" s="275"/>
+      <c r="E47" s="281"/>
+      <c r="F47" s="211"/>
+      <c r="G47" s="276"/>
+      <c r="H47" s="276"/>
+      <c r="I47" s="277"/>
       <c r="J47" s="95"/>
       <c r="K47" s="91"/>
-      <c r="L47" s="313"/>
-      <c r="M47" s="323"/>
-      <c r="N47" s="319"/>
-      <c r="O47" s="319"/>
-      <c r="P47" s="324"/>
+      <c r="L47" s="311"/>
+      <c r="M47" s="321"/>
+      <c r="N47" s="317"/>
+      <c r="O47" s="317"/>
+      <c r="P47" s="322"/>
       <c r="R47" s="19"/>
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
     </row>
     <row r="48" spans="1:20" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="107"/>
-      <c r="B48" s="211"/>
+      <c r="B48" s="210"/>
       <c r="C48" s="109"/>
-      <c r="D48" s="280" t="s">
+      <c r="D48" s="278" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="281"/>
-      <c r="F48" s="281"/>
-      <c r="G48" s="281"/>
-      <c r="H48" s="281"/>
-      <c r="I48" s="282"/>
+      <c r="E48" s="279"/>
+      <c r="F48" s="279"/>
+      <c r="G48" s="279"/>
+      <c r="H48" s="279"/>
+      <c r="I48" s="280"/>
       <c r="J48" s="95"/>
       <c r="K48" s="91"/>
-      <c r="L48" s="313"/>
-      <c r="M48" s="323"/>
-      <c r="N48" s="319"/>
-      <c r="O48" s="319"/>
-      <c r="P48" s="324"/>
+      <c r="L48" s="311"/>
+      <c r="M48" s="321"/>
+      <c r="N48" s="317"/>
+      <c r="O48" s="317"/>
+      <c r="P48" s="322"/>
       <c r="R48" s="19"/>
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
     </row>
     <row r="49" spans="1:20" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="107"/>
-      <c r="B49" s="211"/>
-      <c r="C49" s="211"/>
-      <c r="D49" s="273" t="s">
+      <c r="B49" s="210"/>
+      <c r="C49" s="210"/>
+      <c r="D49" s="272" t="s">
         <v>61</v>
       </c>
       <c r="E49" s="114"/>
@@ -9045,19 +9049,19 @@
       <c r="I49" s="116"/>
       <c r="J49" s="96"/>
       <c r="K49" s="94"/>
-      <c r="L49" s="313"/>
-      <c r="M49" s="323"/>
-      <c r="N49" s="319"/>
-      <c r="O49" s="319"/>
-      <c r="P49" s="324"/>
+      <c r="L49" s="311"/>
+      <c r="M49" s="321"/>
+      <c r="N49" s="317"/>
+      <c r="O49" s="317"/>
+      <c r="P49" s="322"/>
       <c r="R49" s="19"/>
       <c r="S49" s="20"/>
       <c r="T49" s="20"/>
     </row>
     <row r="50" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="107"/>
-      <c r="B50" s="211"/>
-      <c r="C50" s="211"/>
+      <c r="B50" s="210"/>
+      <c r="C50" s="210"/>
       <c r="D50" s="58" t="s">
         <v>68</v>
       </c>
@@ -9068,19 +9072,19 @@
       <c r="I50" s="66"/>
       <c r="J50" s="90"/>
       <c r="K50" s="94"/>
-      <c r="L50" s="314"/>
-      <c r="M50" s="323"/>
-      <c r="N50" s="319"/>
-      <c r="O50" s="319"/>
-      <c r="P50" s="324"/>
+      <c r="L50" s="312"/>
+      <c r="M50" s="321"/>
+      <c r="N50" s="317"/>
+      <c r="O50" s="317"/>
+      <c r="P50" s="322"/>
       <c r="R50" s="19"/>
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
     </row>
     <row r="51" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="107"/>
-      <c r="B51" s="211"/>
-      <c r="C51" s="211"/>
+      <c r="B51" s="210"/>
+      <c r="C51" s="210"/>
       <c r="D51" s="58" t="s">
         <v>69</v>
       </c>
@@ -9091,19 +9095,19 @@
       <c r="I51" s="66"/>
       <c r="J51" s="90"/>
       <c r="K51" s="93"/>
-      <c r="L51" s="313"/>
-      <c r="M51" s="323"/>
-      <c r="N51" s="319"/>
-      <c r="O51" s="319"/>
-      <c r="P51" s="324"/>
+      <c r="L51" s="311"/>
+      <c r="M51" s="321"/>
+      <c r="N51" s="317"/>
+      <c r="O51" s="317"/>
+      <c r="P51" s="322"/>
       <c r="R51" s="19"/>
       <c r="S51" s="20"/>
       <c r="T51" s="20"/>
     </row>
     <row r="52" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="107"/>
-      <c r="B52" s="211"/>
-      <c r="C52" s="211"/>
+      <c r="B52" s="210"/>
+      <c r="C52" s="210"/>
       <c r="D52" s="58" t="s">
         <v>70</v>
       </c>
@@ -9114,34 +9118,34 @@
       <c r="I52" s="66"/>
       <c r="J52" s="93"/>
       <c r="K52" s="90"/>
-      <c r="L52" s="313"/>
-      <c r="M52" s="323"/>
-      <c r="N52" s="319"/>
-      <c r="O52" s="319"/>
-      <c r="P52" s="324"/>
+      <c r="L52" s="311"/>
+      <c r="M52" s="321"/>
+      <c r="N52" s="317"/>
+      <c r="O52" s="317"/>
+      <c r="P52" s="322"/>
       <c r="R52" s="19"/>
       <c r="S52" s="20"/>
       <c r="T52" s="20"/>
     </row>
     <row r="53" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="107"/>
-      <c r="B53" s="211"/>
-      <c r="C53" s="211"/>
+      <c r="B53" s="210"/>
+      <c r="C53" s="210"/>
       <c r="D53" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="284"/>
+      <c r="E53" s="282"/>
       <c r="F53" s="72"/>
       <c r="G53" s="70"/>
       <c r="H53" s="70"/>
       <c r="I53" s="68"/>
       <c r="J53" s="93"/>
       <c r="K53" s="93"/>
-      <c r="L53" s="314"/>
-      <c r="M53" s="323"/>
-      <c r="N53" s="319"/>
-      <c r="O53" s="319"/>
-      <c r="P53" s="324"/>
+      <c r="L53" s="312"/>
+      <c r="M53" s="321"/>
+      <c r="N53" s="317"/>
+      <c r="O53" s="317"/>
+      <c r="P53" s="322"/>
       <c r="R53" s="19"/>
       <c r="S53" s="20"/>
       <c r="T53" s="20"/>
@@ -9150,19 +9154,19 @@
       <c r="A54" s="110"/>
       <c r="B54" s="111"/>
       <c r="C54" s="111"/>
-      <c r="D54" s="277"/>
-      <c r="E54" s="285"/>
-      <c r="F54" s="212"/>
-      <c r="G54" s="278"/>
-      <c r="H54" s="278"/>
-      <c r="I54" s="279"/>
-      <c r="J54" s="222"/>
-      <c r="K54" s="233"/>
-      <c r="L54" s="315"/>
-      <c r="M54" s="323"/>
-      <c r="N54" s="319"/>
-      <c r="O54" s="319"/>
-      <c r="P54" s="324"/>
+      <c r="D54" s="275"/>
+      <c r="E54" s="283"/>
+      <c r="F54" s="211"/>
+      <c r="G54" s="276"/>
+      <c r="H54" s="276"/>
+      <c r="I54" s="277"/>
+      <c r="J54" s="221"/>
+      <c r="K54" s="232"/>
+      <c r="L54" s="313"/>
+      <c r="M54" s="321"/>
+      <c r="N54" s="317"/>
+      <c r="O54" s="317"/>
+      <c r="P54" s="322"/>
       <c r="R54" s="19"/>
       <c r="S54" s="20"/>
       <c r="T54" s="20"/>
@@ -9171,28 +9175,28 @@
       <c r="A55" s="104"/>
       <c r="B55" s="105"/>
       <c r="C55" s="106"/>
-      <c r="D55" s="229" t="s">
+      <c r="D55" s="228" t="s">
         <v>37</v>
       </c>
-      <c r="E55" s="230"/>
-      <c r="F55" s="230"/>
-      <c r="G55" s="230"/>
-      <c r="H55" s="230"/>
-      <c r="I55" s="231"/>
+      <c r="E55" s="229"/>
+      <c r="F55" s="229"/>
+      <c r="G55" s="229"/>
+      <c r="H55" s="229"/>
+      <c r="I55" s="230"/>
       <c r="J55" s="88"/>
       <c r="K55" s="89"/>
-      <c r="L55" s="312"/>
-      <c r="M55" s="332"/>
-      <c r="N55" s="333"/>
-      <c r="O55" s="333"/>
-      <c r="P55" s="322"/>
+      <c r="L55" s="310"/>
+      <c r="M55" s="330"/>
+      <c r="N55" s="331"/>
+      <c r="O55" s="331"/>
+      <c r="P55" s="320"/>
       <c r="R55" s="19"/>
       <c r="S55" s="20"/>
       <c r="T55" s="20"/>
     </row>
     <row r="56" spans="1:20" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="107"/>
-      <c r="B56" s="211"/>
+      <c r="B56" s="210"/>
       <c r="C56" s="109"/>
       <c r="D56" s="184" t="s">
         <v>39</v>
@@ -9204,65 +9208,65 @@
       <c r="I56" s="186"/>
       <c r="J56" s="90"/>
       <c r="K56" s="91"/>
-      <c r="L56" s="313"/>
-      <c r="M56" s="323"/>
-      <c r="N56" s="319"/>
-      <c r="O56" s="319"/>
-      <c r="P56" s="324"/>
+      <c r="L56" s="311"/>
+      <c r="M56" s="321"/>
+      <c r="N56" s="317"/>
+      <c r="O56" s="317"/>
+      <c r="P56" s="322"/>
       <c r="R56" s="19"/>
       <c r="S56" s="20"/>
       <c r="T56" s="20"/>
     </row>
     <row r="57" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="107"/>
-      <c r="B57" s="211"/>
+      <c r="B57" s="210"/>
       <c r="C57"/>
-      <c r="D57" s="273" t="s">
+      <c r="D57" s="272" t="s">
         <v>64</v>
       </c>
-      <c r="E57" s="286"/>
-      <c r="F57" s="287"/>
-      <c r="G57" s="287"/>
-      <c r="H57" s="287"/>
-      <c r="I57" s="288"/>
+      <c r="E57" s="284"/>
+      <c r="F57" s="285"/>
+      <c r="G57" s="285"/>
+      <c r="H57" s="285"/>
+      <c r="I57" s="286"/>
       <c r="J57" s="93"/>
       <c r="K57" s="93"/>
-      <c r="L57" s="313"/>
-      <c r="M57" s="323"/>
-      <c r="N57" s="319"/>
-      <c r="O57" s="319"/>
-      <c r="P57" s="324"/>
+      <c r="L57" s="311"/>
+      <c r="M57" s="321"/>
+      <c r="N57" s="317"/>
+      <c r="O57" s="317"/>
+      <c r="P57" s="322"/>
       <c r="R57" s="19"/>
       <c r="S57" s="20"/>
       <c r="T57" s="20"/>
     </row>
     <row r="58" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="107"/>
-      <c r="B58" s="211"/>
+      <c r="B58" s="210"/>
       <c r="C58"/>
       <c r="D58" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="232"/>
+      <c r="E58" s="231"/>
       <c r="F58" s="65"/>
       <c r="G58" s="61"/>
       <c r="H58" s="65"/>
       <c r="I58" s="66"/>
       <c r="J58" s="93"/>
       <c r="K58" s="90"/>
-      <c r="L58" s="331"/>
-      <c r="M58" s="323"/>
-      <c r="N58" s="319"/>
-      <c r="O58" s="319"/>
-      <c r="P58" s="324"/>
+      <c r="L58" s="329"/>
+      <c r="M58" s="321"/>
+      <c r="N58" s="317"/>
+      <c r="O58" s="317"/>
+      <c r="P58" s="322"/>
       <c r="R58" s="19"/>
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
     </row>
     <row r="59" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="107"/>
-      <c r="B59" s="211"/>
-      <c r="C59" s="211"/>
+      <c r="B59" s="210"/>
+      <c r="C59" s="210"/>
       <c r="D59" s="58" t="s">
         <v>72</v>
       </c>
@@ -9274,171 +9278,171 @@
       <c r="J59" s="93"/>
       <c r="K59" s="90"/>
       <c r="L59" s="118"/>
-      <c r="M59" s="323"/>
-      <c r="N59" s="319"/>
-      <c r="O59" s="319"/>
-      <c r="P59" s="324"/>
+      <c r="M59" s="321"/>
+      <c r="N59" s="317"/>
+      <c r="O59" s="317"/>
+      <c r="P59" s="322"/>
       <c r="R59" s="19"/>
       <c r="S59" s="20"/>
       <c r="T59" s="20"/>
     </row>
     <row r="60" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="107"/>
-      <c r="B60" s="211"/>
-      <c r="C60" s="211"/>
+      <c r="B60" s="210"/>
+      <c r="C60" s="210"/>
       <c r="D60" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="232"/>
+      <c r="E60" s="231"/>
       <c r="F60" s="65"/>
       <c r="G60" s="61"/>
       <c r="H60" s="65"/>
       <c r="I60" s="66"/>
       <c r="J60" s="192"/>
       <c r="K60" s="191"/>
-      <c r="L60" s="331"/>
-      <c r="M60" s="342" t="s">
+      <c r="L60" s="329"/>
+      <c r="M60" s="340" t="s">
         <v>75</v>
       </c>
-      <c r="N60" s="343"/>
-      <c r="O60" s="343"/>
-      <c r="P60" s="344"/>
+      <c r="N60" s="341"/>
+      <c r="O60" s="341"/>
+      <c r="P60" s="342"/>
       <c r="R60" s="19"/>
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
     </row>
     <row r="61" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="107"/>
-      <c r="B61" s="211"/>
+      <c r="B61" s="210"/>
       <c r="C61"/>
       <c r="D61" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="E61" s="232"/>
+      <c r="E61" s="231"/>
       <c r="F61" s="72"/>
       <c r="G61" s="70"/>
       <c r="H61" s="72"/>
       <c r="I61" s="68"/>
       <c r="J61" s="93"/>
       <c r="K61" s="91"/>
-      <c r="L61" s="313"/>
-      <c r="M61" s="342"/>
-      <c r="N61" s="343"/>
-      <c r="O61" s="343"/>
-      <c r="P61" s="344"/>
+      <c r="L61" s="311"/>
+      <c r="M61" s="340"/>
+      <c r="N61" s="341"/>
+      <c r="O61" s="341"/>
+      <c r="P61" s="342"/>
       <c r="R61" s="19"/>
       <c r="S61" s="20"/>
       <c r="T61" s="20"/>
     </row>
     <row r="62" spans="1:20" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="107"/>
-      <c r="B62" s="211"/>
-      <c r="C62" s="211"/>
-      <c r="D62" s="277"/>
-      <c r="E62" s="289"/>
-      <c r="F62" s="212"/>
-      <c r="G62" s="278"/>
-      <c r="H62" s="212"/>
-      <c r="I62" s="279"/>
+      <c r="B62" s="210"/>
+      <c r="C62" s="210"/>
+      <c r="D62" s="275"/>
+      <c r="E62" s="287"/>
+      <c r="F62" s="211"/>
+      <c r="G62" s="276"/>
+      <c r="H62" s="211"/>
+      <c r="I62" s="277"/>
       <c r="J62" s="90"/>
       <c r="K62" s="91"/>
-      <c r="L62" s="313"/>
-      <c r="M62" s="323"/>
-      <c r="N62" s="319"/>
-      <c r="O62" s="319"/>
-      <c r="P62" s="324"/>
+      <c r="L62" s="311"/>
+      <c r="M62" s="321"/>
+      <c r="N62" s="317"/>
+      <c r="O62" s="317"/>
+      <c r="P62" s="322"/>
       <c r="R62" s="19"/>
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
     </row>
     <row r="63" spans="1:20" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="107"/>
-      <c r="B63" s="211"/>
+      <c r="B63" s="210"/>
       <c r="C63" s="109"/>
-      <c r="D63" s="280" t="s">
+      <c r="D63" s="278" t="s">
         <v>63</v>
       </c>
-      <c r="E63" s="281"/>
-      <c r="F63" s="281"/>
-      <c r="G63" s="281"/>
-      <c r="H63" s="281"/>
-      <c r="I63" s="282"/>
+      <c r="E63" s="279"/>
+      <c r="F63" s="279"/>
+      <c r="G63" s="279"/>
+      <c r="H63" s="279"/>
+      <c r="I63" s="280"/>
       <c r="J63" s="90"/>
       <c r="K63" s="91"/>
-      <c r="L63" s="313"/>
-      <c r="M63" s="323"/>
-      <c r="N63" s="319"/>
-      <c r="O63" s="319"/>
-      <c r="P63" s="324"/>
+      <c r="L63" s="311"/>
+      <c r="M63" s="321"/>
+      <c r="N63" s="317"/>
+      <c r="O63" s="317"/>
+      <c r="P63" s="322"/>
       <c r="R63" s="19"/>
       <c r="S63" s="20"/>
       <c r="T63" s="20"/>
     </row>
     <row r="64" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="107"/>
-      <c r="B64" s="211"/>
-      <c r="C64" s="211"/>
-      <c r="D64" s="273" t="s">
+      <c r="B64" s="210"/>
+      <c r="C64" s="210"/>
+      <c r="D64" s="272" t="s">
         <v>93</v>
       </c>
-      <c r="E64" s="236"/>
-      <c r="F64" s="237"/>
+      <c r="E64" s="235"/>
+      <c r="F64" s="236"/>
       <c r="G64" s="56"/>
-      <c r="H64" s="237"/>
-      <c r="I64" s="238"/>
+      <c r="H64" s="236"/>
+      <c r="I64" s="237"/>
       <c r="J64" s="90"/>
       <c r="K64" s="93"/>
-      <c r="L64" s="313"/>
-      <c r="M64" s="323"/>
-      <c r="N64" s="319"/>
-      <c r="O64" s="319"/>
-      <c r="P64" s="324"/>
+      <c r="L64" s="311"/>
+      <c r="M64" s="321"/>
+      <c r="N64" s="317"/>
+      <c r="O64" s="317"/>
+      <c r="P64" s="322"/>
       <c r="R64" s="19"/>
       <c r="S64" s="20"/>
       <c r="T64" s="20"/>
     </row>
     <row r="65" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="107"/>
-      <c r="B65" s="211"/>
-      <c r="C65" s="211"/>
+      <c r="B65" s="210"/>
+      <c r="C65" s="210"/>
       <c r="D65" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E65" s="232"/>
+      <c r="E65" s="231"/>
       <c r="F65" s="65"/>
       <c r="G65" s="61"/>
       <c r="H65" s="65"/>
       <c r="I65" s="66"/>
       <c r="J65" s="93"/>
       <c r="K65" s="91"/>
-      <c r="L65" s="313"/>
-      <c r="M65" s="323"/>
-      <c r="N65" s="319"/>
-      <c r="O65" s="319"/>
-      <c r="P65" s="324"/>
+      <c r="L65" s="311"/>
+      <c r="M65" s="321"/>
+      <c r="N65" s="317"/>
+      <c r="O65" s="317"/>
+      <c r="P65" s="322"/>
       <c r="R65" s="19"/>
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
     </row>
     <row r="66" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="107"/>
-      <c r="B66" s="211"/>
-      <c r="C66" s="211"/>
+      <c r="B66" s="210"/>
+      <c r="C66" s="210"/>
       <c r="D66" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="E66" s="232"/>
+      <c r="E66" s="231"/>
       <c r="F66" s="72"/>
       <c r="G66" s="70"/>
       <c r="H66" s="72"/>
       <c r="I66" s="68"/>
       <c r="J66" s="90"/>
       <c r="K66" s="91"/>
-      <c r="L66" s="331"/>
-      <c r="M66" s="323"/>
-      <c r="N66" s="319"/>
-      <c r="O66" s="319"/>
-      <c r="P66" s="324"/>
+      <c r="L66" s="329"/>
+      <c r="M66" s="321"/>
+      <c r="N66" s="317"/>
+      <c r="O66" s="317"/>
+      <c r="P66" s="322"/>
       <c r="R66" s="19"/>
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
@@ -9446,20 +9450,20 @@
     <row r="67" spans="1:20" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="110"/>
       <c r="B67" s="111"/>
-      <c r="C67" s="234"/>
-      <c r="D67" s="277"/>
-      <c r="E67" s="235"/>
-      <c r="F67" s="212"/>
-      <c r="G67" s="278"/>
-      <c r="H67" s="212"/>
-      <c r="I67" s="279"/>
-      <c r="J67" s="222"/>
-      <c r="K67" s="213"/>
-      <c r="L67" s="315"/>
-      <c r="M67" s="323"/>
-      <c r="N67" s="319"/>
-      <c r="O67" s="319"/>
-      <c r="P67" s="324"/>
+      <c r="C67" s="233"/>
+      <c r="D67" s="275"/>
+      <c r="E67" s="234"/>
+      <c r="F67" s="211"/>
+      <c r="G67" s="276"/>
+      <c r="H67" s="211"/>
+      <c r="I67" s="277"/>
+      <c r="J67" s="221"/>
+      <c r="K67" s="212"/>
+      <c r="L67" s="313"/>
+      <c r="M67" s="321"/>
+      <c r="N67" s="317"/>
+      <c r="O67" s="317"/>
+      <c r="P67" s="322"/>
       <c r="R67" s="19"/>
       <c r="S67" s="20"/>
       <c r="T67" s="20"/>
@@ -9468,28 +9472,28 @@
       <c r="A68" s="104"/>
       <c r="B68" s="105"/>
       <c r="C68" s="106"/>
-      <c r="D68" s="209" t="s">
+      <c r="D68" s="208" t="s">
         <v>77</v>
       </c>
-      <c r="E68" s="232"/>
-      <c r="F68" s="214"/>
-      <c r="G68" s="210"/>
-      <c r="H68" s="214"/>
+      <c r="E68" s="231"/>
+      <c r="F68" s="213"/>
+      <c r="G68" s="209"/>
+      <c r="H68" s="213"/>
       <c r="I68" s="78"/>
       <c r="J68" s="88"/>
       <c r="K68" s="89"/>
-      <c r="L68" s="312"/>
-      <c r="M68" s="320"/>
-      <c r="N68" s="321"/>
-      <c r="O68" s="321"/>
-      <c r="P68" s="322"/>
+      <c r="L68" s="310"/>
+      <c r="M68" s="318"/>
+      <c r="N68" s="319"/>
+      <c r="O68" s="319"/>
+      <c r="P68" s="320"/>
       <c r="R68" s="19"/>
       <c r="S68" s="20"/>
       <c r="T68" s="20"/>
     </row>
     <row r="69" spans="1:20" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="107"/>
-      <c r="B69" s="211"/>
+      <c r="B69" s="210"/>
       <c r="C69" s="109"/>
       <c r="D69" s="198" t="s">
         <v>76</v>
@@ -9501,124 +9505,124 @@
       <c r="I69" s="200"/>
       <c r="J69" s="90"/>
       <c r="K69" s="91"/>
-      <c r="L69" s="313"/>
-      <c r="M69" s="323"/>
-      <c r="N69" s="319"/>
-      <c r="O69" s="319"/>
-      <c r="P69" s="324"/>
+      <c r="L69" s="311"/>
+      <c r="M69" s="321"/>
+      <c r="N69" s="317"/>
+      <c r="O69" s="317"/>
+      <c r="P69" s="322"/>
       <c r="R69" s="19"/>
       <c r="S69" s="20"/>
       <c r="T69" s="20"/>
     </row>
     <row r="70" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="107"/>
-      <c r="B70" s="211"/>
-      <c r="C70" s="211"/>
-      <c r="D70" s="273" t="s">
+      <c r="B70" s="210"/>
+      <c r="C70" s="210"/>
+      <c r="D70" s="272" t="s">
         <v>79</v>
       </c>
-      <c r="E70" s="236"/>
-      <c r="F70" s="237"/>
+      <c r="E70" s="235"/>
+      <c r="F70" s="236"/>
       <c r="G70" s="56"/>
-      <c r="H70" s="237"/>
-      <c r="I70" s="238"/>
+      <c r="H70" s="236"/>
+      <c r="I70" s="237"/>
       <c r="J70" s="90"/>
       <c r="K70" s="93"/>
-      <c r="L70" s="313"/>
-      <c r="M70" s="323"/>
-      <c r="N70" s="319"/>
-      <c r="O70" s="319"/>
-      <c r="P70" s="324"/>
+      <c r="L70" s="311"/>
+      <c r="M70" s="321"/>
+      <c r="N70" s="317"/>
+      <c r="O70" s="317"/>
+      <c r="P70" s="322"/>
       <c r="R70" s="19"/>
       <c r="S70" s="20"/>
       <c r="T70" s="20"/>
     </row>
     <row r="71" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="107"/>
-      <c r="B71" s="211"/>
-      <c r="C71" s="211"/>
+      <c r="B71" s="210"/>
+      <c r="C71" s="210"/>
       <c r="D71" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="E71" s="232"/>
+      <c r="E71" s="231"/>
       <c r="F71" s="65"/>
       <c r="G71" s="61"/>
       <c r="H71" s="65"/>
       <c r="I71" s="66"/>
       <c r="J71" s="93"/>
       <c r="K71" s="91"/>
-      <c r="L71" s="313"/>
-      <c r="M71" s="323"/>
-      <c r="N71" s="319"/>
-      <c r="O71" s="319"/>
-      <c r="P71" s="324"/>
+      <c r="L71" s="311"/>
+      <c r="M71" s="321"/>
+      <c r="N71" s="317"/>
+      <c r="O71" s="317"/>
+      <c r="P71" s="322"/>
       <c r="R71" s="19"/>
       <c r="S71" s="20"/>
       <c r="T71" s="20"/>
     </row>
     <row r="72" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="107"/>
-      <c r="B72" s="211"/>
-      <c r="C72" s="211"/>
+      <c r="B72" s="210"/>
+      <c r="C72" s="210"/>
       <c r="D72" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="E72" s="232"/>
+      <c r="E72" s="231"/>
       <c r="F72" s="65"/>
       <c r="G72" s="61"/>
       <c r="H72" s="65"/>
       <c r="I72" s="66"/>
       <c r="J72" s="90"/>
       <c r="K72" s="91"/>
-      <c r="L72" s="314"/>
-      <c r="M72" s="323"/>
-      <c r="N72" s="319"/>
-      <c r="O72" s="319"/>
-      <c r="P72" s="324"/>
+      <c r="L72" s="312"/>
+      <c r="M72" s="321"/>
+      <c r="N72" s="317"/>
+      <c r="O72" s="317"/>
+      <c r="P72" s="322"/>
       <c r="R72" s="19"/>
       <c r="S72" s="20"/>
       <c r="T72" s="20"/>
     </row>
     <row r="73" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="107"/>
-      <c r="B73" s="211"/>
-      <c r="C73" s="211"/>
+      <c r="B73" s="210"/>
+      <c r="C73" s="210"/>
       <c r="D73" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="E73" s="232"/>
+      <c r="E73" s="231"/>
       <c r="F73" s="72"/>
       <c r="G73" s="70"/>
       <c r="H73" s="72"/>
       <c r="I73" s="68"/>
       <c r="J73" s="93"/>
       <c r="K73" s="91"/>
-      <c r="L73" s="313"/>
-      <c r="M73" s="323"/>
-      <c r="N73" s="319"/>
-      <c r="O73" s="319"/>
-      <c r="P73" s="324"/>
+      <c r="L73" s="311"/>
+      <c r="M73" s="321"/>
+      <c r="N73" s="317"/>
+      <c r="O73" s="317"/>
+      <c r="P73" s="322"/>
       <c r="R73" s="19"/>
       <c r="S73" s="20"/>
       <c r="T73" s="20"/>
     </row>
     <row r="74" spans="1:20" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="107"/>
-      <c r="B74" s="211"/>
-      <c r="C74" s="211"/>
-      <c r="D74" s="277"/>
-      <c r="E74" s="235"/>
-      <c r="F74" s="212"/>
-      <c r="G74" s="278"/>
-      <c r="H74" s="212"/>
-      <c r="I74" s="279"/>
+      <c r="B74" s="210"/>
+      <c r="C74" s="210"/>
+      <c r="D74" s="275"/>
+      <c r="E74" s="234"/>
+      <c r="F74" s="211"/>
+      <c r="G74" s="276"/>
+      <c r="H74" s="211"/>
+      <c r="I74" s="277"/>
       <c r="J74" s="90"/>
       <c r="K74" s="91"/>
-      <c r="L74" s="313"/>
-      <c r="M74" s="323"/>
-      <c r="N74" s="319"/>
-      <c r="O74" s="319"/>
-      <c r="P74" s="324"/>
+      <c r="L74" s="311"/>
+      <c r="M74" s="321"/>
+      <c r="N74" s="317"/>
+      <c r="O74" s="317"/>
+      <c r="P74" s="322"/>
       <c r="R74" s="19"/>
       <c r="S74" s="20"/>
       <c r="T74" s="20"/>
@@ -9627,21 +9631,21 @@
       <c r="A75" s="110"/>
       <c r="B75" s="111"/>
       <c r="C75" s="112"/>
-      <c r="D75" s="290" t="s">
+      <c r="D75" s="288" t="s">
         <v>81</v>
       </c>
-      <c r="E75" s="235"/>
-      <c r="F75" s="291"/>
-      <c r="G75" s="278"/>
-      <c r="H75" s="291"/>
-      <c r="I75" s="279"/>
-      <c r="J75" s="222"/>
-      <c r="K75" s="213"/>
-      <c r="L75" s="315"/>
-      <c r="M75" s="323"/>
-      <c r="N75" s="319"/>
-      <c r="O75" s="319"/>
-      <c r="P75" s="324"/>
+      <c r="E75" s="234"/>
+      <c r="F75" s="289"/>
+      <c r="G75" s="276"/>
+      <c r="H75" s="289"/>
+      <c r="I75" s="277"/>
+      <c r="J75" s="221"/>
+      <c r="K75" s="212"/>
+      <c r="L75" s="313"/>
+      <c r="M75" s="321"/>
+      <c r="N75" s="317"/>
+      <c r="O75" s="317"/>
+      <c r="P75" s="322"/>
       <c r="R75" s="19"/>
       <c r="S75" s="20"/>
       <c r="T75" s="20"/>
@@ -9650,28 +9654,28 @@
       <c r="A76" s="104"/>
       <c r="B76" s="105"/>
       <c r="C76" s="106"/>
-      <c r="D76" s="215" t="s">
+      <c r="D76" s="214" t="s">
         <v>82</v>
       </c>
-      <c r="E76" s="236"/>
-      <c r="F76" s="224"/>
-      <c r="G76" s="218"/>
-      <c r="H76" s="224"/>
-      <c r="I76" s="225"/>
+      <c r="E76" s="235"/>
+      <c r="F76" s="223"/>
+      <c r="G76" s="217"/>
+      <c r="H76" s="223"/>
+      <c r="I76" s="224"/>
       <c r="J76" s="88"/>
       <c r="K76" s="89"/>
-      <c r="L76" s="312"/>
-      <c r="M76" s="320"/>
-      <c r="N76" s="321"/>
-      <c r="O76" s="321"/>
-      <c r="P76" s="322"/>
+      <c r="L76" s="310"/>
+      <c r="M76" s="318"/>
+      <c r="N76" s="319"/>
+      <c r="O76" s="319"/>
+      <c r="P76" s="320"/>
       <c r="R76" s="19"/>
       <c r="S76" s="20"/>
       <c r="T76" s="20"/>
     </row>
     <row r="77" spans="1:20" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="107"/>
-      <c r="B77" s="211"/>
+      <c r="B77" s="210"/>
       <c r="C77" s="109"/>
       <c r="D77" s="198" t="s">
         <v>86</v>
@@ -9683,103 +9687,103 @@
       <c r="I77" s="200"/>
       <c r="J77" s="90"/>
       <c r="K77" s="91"/>
-      <c r="L77" s="313"/>
-      <c r="M77" s="323"/>
-      <c r="N77" s="319"/>
-      <c r="O77" s="319"/>
-      <c r="P77" s="324"/>
+      <c r="L77" s="311"/>
+      <c r="M77" s="321"/>
+      <c r="N77" s="317"/>
+      <c r="O77" s="317"/>
+      <c r="P77" s="322"/>
       <c r="R77" s="19"/>
       <c r="S77" s="20"/>
       <c r="T77" s="20"/>
     </row>
     <row r="78" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="107"/>
-      <c r="B78" s="211"/>
-      <c r="C78" s="211"/>
-      <c r="D78" s="273" t="s">
+      <c r="B78" s="210"/>
+      <c r="C78" s="210"/>
+      <c r="D78" s="272" t="s">
         <v>96</v>
       </c>
-      <c r="E78" s="236"/>
-      <c r="F78" s="237"/>
+      <c r="E78" s="235"/>
+      <c r="F78" s="236"/>
       <c r="G78" s="56"/>
-      <c r="H78" s="237"/>
-      <c r="I78" s="238"/>
+      <c r="H78" s="236"/>
+      <c r="I78" s="237"/>
       <c r="J78" s="93"/>
       <c r="K78" s="94"/>
-      <c r="L78" s="314"/>
-      <c r="M78" s="323"/>
-      <c r="N78" s="319"/>
-      <c r="O78" s="319"/>
-      <c r="P78" s="324"/>
+      <c r="L78" s="312"/>
+      <c r="M78" s="321"/>
+      <c r="N78" s="317"/>
+      <c r="O78" s="317"/>
+      <c r="P78" s="322"/>
       <c r="R78" s="19"/>
       <c r="S78" s="20"/>
       <c r="T78" s="20"/>
     </row>
     <row r="79" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="107"/>
-      <c r="B79" s="211"/>
-      <c r="C79" s="211"/>
+      <c r="B79" s="210"/>
+      <c r="C79" s="210"/>
       <c r="D79" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="E79" s="232"/>
+      <c r="E79" s="231"/>
       <c r="F79" s="65"/>
       <c r="G79" s="61"/>
       <c r="H79" s="65"/>
       <c r="I79" s="66"/>
       <c r="J79" s="90"/>
       <c r="K79" s="91"/>
-      <c r="L79" s="314"/>
-      <c r="M79" s="323"/>
-      <c r="N79" s="319"/>
-      <c r="O79" s="319"/>
-      <c r="P79" s="324"/>
+      <c r="L79" s="312"/>
+      <c r="M79" s="321"/>
+      <c r="N79" s="317"/>
+      <c r="O79" s="317"/>
+      <c r="P79" s="322"/>
       <c r="R79" s="19"/>
       <c r="S79" s="20"/>
       <c r="T79" s="20"/>
     </row>
     <row r="80" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="107"/>
-      <c r="B80" s="211"/>
-      <c r="C80" s="211"/>
+      <c r="B80" s="210"/>
+      <c r="C80" s="210"/>
       <c r="D80" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="E80" s="232"/>
+      <c r="E80" s="231"/>
       <c r="F80" s="65"/>
       <c r="G80" s="61"/>
       <c r="H80" s="65"/>
       <c r="I80" s="66"/>
       <c r="J80" s="93"/>
       <c r="K80" s="94"/>
-      <c r="L80" s="313"/>
-      <c r="M80" s="323"/>
-      <c r="N80" s="319"/>
-      <c r="O80" s="319"/>
-      <c r="P80" s="324"/>
+      <c r="L80" s="311"/>
+      <c r="M80" s="321"/>
+      <c r="N80" s="317"/>
+      <c r="O80" s="317"/>
+      <c r="P80" s="322"/>
       <c r="R80" s="19"/>
       <c r="S80" s="20"/>
       <c r="T80" s="20"/>
     </row>
     <row r="81" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="107"/>
-      <c r="B81" s="220"/>
-      <c r="C81" s="211"/>
+      <c r="B81" s="219"/>
+      <c r="C81" s="210"/>
       <c r="D81" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="E81" s="232"/>
+      <c r="E81" s="231"/>
       <c r="F81" s="72"/>
       <c r="G81" s="70"/>
       <c r="H81" s="72"/>
       <c r="I81" s="68"/>
       <c r="J81" s="90"/>
       <c r="K81" s="91"/>
-      <c r="L81" s="331"/>
-      <c r="M81" s="323"/>
-      <c r="N81" s="319"/>
-      <c r="O81" s="319"/>
-      <c r="P81" s="324"/>
+      <c r="L81" s="329"/>
+      <c r="M81" s="321"/>
+      <c r="N81" s="317"/>
+      <c r="O81" s="317"/>
+      <c r="P81" s="322"/>
       <c r="R81" s="19"/>
       <c r="S81" s="20"/>
       <c r="T81" s="20"/>
@@ -9788,19 +9792,19 @@
       <c r="A82" s="110"/>
       <c r="B82" s="111"/>
       <c r="C82" s="111"/>
-      <c r="D82" s="277"/>
-      <c r="E82" s="235"/>
-      <c r="F82" s="212"/>
-      <c r="G82" s="278"/>
-      <c r="H82" s="212"/>
-      <c r="I82" s="279"/>
-      <c r="J82" s="222"/>
-      <c r="K82" s="213"/>
-      <c r="L82" s="315"/>
-      <c r="M82" s="323"/>
-      <c r="N82" s="319"/>
-      <c r="O82" s="319"/>
-      <c r="P82" s="324"/>
+      <c r="D82" s="275"/>
+      <c r="E82" s="234"/>
+      <c r="F82" s="211"/>
+      <c r="G82" s="276"/>
+      <c r="H82" s="211"/>
+      <c r="I82" s="277"/>
+      <c r="J82" s="221"/>
+      <c r="K82" s="212"/>
+      <c r="L82" s="313"/>
+      <c r="M82" s="321"/>
+      <c r="N82" s="317"/>
+      <c r="O82" s="317"/>
+      <c r="P82" s="322"/>
       <c r="R82" s="19"/>
       <c r="S82" s="20"/>
       <c r="T82" s="20"/>
@@ -9809,28 +9813,28 @@
       <c r="A83" s="104"/>
       <c r="B83" s="105"/>
       <c r="C83" s="106"/>
-      <c r="D83" s="209" t="s">
+      <c r="D83" s="208" t="s">
         <v>83</v>
       </c>
-      <c r="E83" s="232"/>
+      <c r="E83" s="231"/>
       <c r="F83" s="74"/>
       <c r="G83" s="62"/>
       <c r="H83" s="74"/>
       <c r="I83" s="75"/>
       <c r="J83" s="88"/>
       <c r="K83" s="89"/>
-      <c r="L83" s="312"/>
-      <c r="M83" s="320"/>
-      <c r="N83" s="321"/>
-      <c r="O83" s="321"/>
-      <c r="P83" s="322"/>
+      <c r="L83" s="310"/>
+      <c r="M83" s="318"/>
+      <c r="N83" s="319"/>
+      <c r="O83" s="319"/>
+      <c r="P83" s="320"/>
       <c r="R83" s="19"/>
       <c r="S83" s="20"/>
       <c r="T83" s="20"/>
     </row>
     <row r="84" spans="1:20" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="107"/>
-      <c r="B84" s="220"/>
+      <c r="B84" s="219"/>
       <c r="C84" s="109"/>
       <c r="D84" s="198" t="s">
         <v>87</v>
@@ -9842,80 +9846,80 @@
       <c r="I84" s="200"/>
       <c r="J84" s="90"/>
       <c r="K84" s="91"/>
-      <c r="L84" s="313"/>
-      <c r="M84" s="323"/>
-      <c r="N84" s="319"/>
-      <c r="O84" s="319"/>
-      <c r="P84" s="324"/>
+      <c r="L84" s="311"/>
+      <c r="M84" s="321"/>
+      <c r="N84" s="317"/>
+      <c r="O84" s="317"/>
+      <c r="P84" s="322"/>
       <c r="R84" s="19"/>
       <c r="S84" s="20"/>
       <c r="T84" s="20"/>
     </row>
     <row r="85" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="107"/>
-      <c r="B85" s="211"/>
-      <c r="C85" s="211"/>
-      <c r="D85" s="273" t="s">
+      <c r="B85" s="210"/>
+      <c r="C85" s="210"/>
+      <c r="D85" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="E85" s="236"/>
-      <c r="F85" s="237"/>
+      <c r="E85" s="235"/>
+      <c r="F85" s="236"/>
       <c r="G85" s="56"/>
-      <c r="H85" s="237"/>
-      <c r="I85" s="238"/>
+      <c r="H85" s="236"/>
+      <c r="I85" s="237"/>
       <c r="J85" s="93"/>
       <c r="K85" s="91"/>
-      <c r="L85" s="334"/>
-      <c r="M85" s="323"/>
-      <c r="N85" s="319"/>
-      <c r="O85" s="319"/>
-      <c r="P85" s="324"/>
+      <c r="L85" s="332"/>
+      <c r="M85" s="321"/>
+      <c r="N85" s="317"/>
+      <c r="O85" s="317"/>
+      <c r="P85" s="322"/>
       <c r="R85" s="19"/>
       <c r="S85" s="20"/>
       <c r="T85" s="20"/>
     </row>
     <row r="86" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="107"/>
-      <c r="B86" s="211"/>
-      <c r="C86" s="220"/>
+      <c r="B86" s="210"/>
+      <c r="C86" s="219"/>
       <c r="D86" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="E86" s="232"/>
+      <c r="E86" s="231"/>
       <c r="F86" s="65"/>
       <c r="G86" s="61"/>
       <c r="H86" s="65"/>
       <c r="I86" s="66"/>
       <c r="J86" s="90"/>
       <c r="K86" s="94"/>
-      <c r="L86" s="334"/>
-      <c r="M86" s="323"/>
-      <c r="N86" s="319"/>
-      <c r="O86" s="319"/>
-      <c r="P86" s="324"/>
+      <c r="L86" s="332"/>
+      <c r="M86" s="321"/>
+      <c r="N86" s="317"/>
+      <c r="O86" s="317"/>
+      <c r="P86" s="322"/>
       <c r="R86" s="19"/>
       <c r="S86" s="20"/>
       <c r="T86" s="20"/>
     </row>
     <row r="87" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="107"/>
-      <c r="B87" s="211"/>
-      <c r="C87" s="211"/>
+      <c r="B87" s="210"/>
+      <c r="C87" s="210"/>
       <c r="D87" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="E87" s="232"/>
+      <c r="E87" s="231"/>
       <c r="F87" s="72"/>
       <c r="G87" s="70"/>
       <c r="H87" s="72"/>
       <c r="I87" s="68"/>
       <c r="J87" s="93"/>
       <c r="K87" s="94"/>
-      <c r="L87" s="334"/>
-      <c r="M87" s="323"/>
-      <c r="N87" s="319"/>
-      <c r="O87" s="319"/>
-      <c r="P87" s="324"/>
+      <c r="L87" s="332"/>
+      <c r="M87" s="321"/>
+      <c r="N87" s="317"/>
+      <c r="O87" s="317"/>
+      <c r="P87" s="322"/>
       <c r="R87" s="19"/>
       <c r="S87" s="20"/>
       <c r="T87" s="20"/>
@@ -9924,19 +9928,19 @@
       <c r="A88" s="110"/>
       <c r="B88" s="111"/>
       <c r="C88" s="111"/>
-      <c r="D88" s="277"/>
-      <c r="E88" s="235"/>
-      <c r="F88" s="212"/>
-      <c r="G88" s="278"/>
-      <c r="H88" s="212"/>
-      <c r="I88" s="279"/>
-      <c r="J88" s="222"/>
-      <c r="K88" s="213"/>
-      <c r="L88" s="315"/>
-      <c r="M88" s="323"/>
-      <c r="N88" s="319"/>
-      <c r="O88" s="319"/>
-      <c r="P88" s="324"/>
+      <c r="D88" s="275"/>
+      <c r="E88" s="234"/>
+      <c r="F88" s="211"/>
+      <c r="G88" s="276"/>
+      <c r="H88" s="211"/>
+      <c r="I88" s="277"/>
+      <c r="J88" s="221"/>
+      <c r="K88" s="212"/>
+      <c r="L88" s="313"/>
+      <c r="M88" s="321"/>
+      <c r="N88" s="317"/>
+      <c r="O88" s="317"/>
+      <c r="P88" s="322"/>
       <c r="R88" s="19"/>
       <c r="S88" s="20"/>
       <c r="T88" s="20"/>
@@ -9945,28 +9949,28 @@
       <c r="A89" s="104"/>
       <c r="B89" s="105"/>
       <c r="C89" s="106"/>
-      <c r="D89" s="209" t="s">
+      <c r="D89" s="208" t="s">
         <v>84</v>
       </c>
-      <c r="E89" s="232"/>
+      <c r="E89" s="231"/>
       <c r="F89" s="74"/>
       <c r="G89" s="62"/>
       <c r="H89" s="74"/>
       <c r="I89" s="75"/>
       <c r="J89" s="88"/>
       <c r="K89" s="89"/>
-      <c r="L89" s="312"/>
-      <c r="M89" s="320"/>
-      <c r="N89" s="321"/>
-      <c r="O89" s="321"/>
-      <c r="P89" s="322"/>
+      <c r="L89" s="310"/>
+      <c r="M89" s="318"/>
+      <c r="N89" s="319"/>
+      <c r="O89" s="319"/>
+      <c r="P89" s="320"/>
       <c r="R89" s="19"/>
       <c r="S89" s="20"/>
       <c r="T89" s="20"/>
     </row>
     <row r="90" spans="1:20" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="107"/>
-      <c r="B90" s="211"/>
+      <c r="B90" s="210"/>
       <c r="C90" s="109"/>
       <c r="D90" s="198" t="s">
         <v>88</v>
@@ -9978,126 +9982,126 @@
       <c r="I90" s="200"/>
       <c r="J90" s="90"/>
       <c r="K90" s="91"/>
-      <c r="L90" s="313"/>
-      <c r="M90" s="323"/>
-      <c r="N90" s="319"/>
-      <c r="O90" s="319"/>
-      <c r="P90" s="324"/>
+      <c r="L90" s="311"/>
+      <c r="M90" s="321"/>
+      <c r="N90" s="317"/>
+      <c r="O90" s="317"/>
+      <c r="P90" s="322"/>
       <c r="R90" s="19"/>
       <c r="S90" s="20"/>
       <c r="T90" s="20"/>
     </row>
     <row r="91" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="107"/>
-      <c r="B91" s="211"/>
-      <c r="C91" s="211"/>
-      <c r="D91" s="309" t="s">
+      <c r="B91" s="210"/>
+      <c r="C91" s="210"/>
+      <c r="D91" s="307" t="s">
         <v>103</v>
       </c>
-      <c r="E91" s="236"/>
-      <c r="F91" s="237"/>
+      <c r="E91" s="235"/>
+      <c r="F91" s="236"/>
       <c r="G91" s="56"/>
-      <c r="H91" s="237"/>
-      <c r="I91" s="238"/>
+      <c r="H91" s="236"/>
+      <c r="I91" s="237"/>
       <c r="J91" s="90"/>
       <c r="K91" s="91"/>
-      <c r="L91" s="314"/>
-      <c r="M91" s="323"/>
-      <c r="N91" s="319"/>
-      <c r="O91" s="319"/>
-      <c r="P91" s="324"/>
+      <c r="L91" s="312"/>
+      <c r="M91" s="321"/>
+      <c r="N91" s="317"/>
+      <c r="O91" s="317"/>
+      <c r="P91" s="322"/>
       <c r="R91" s="19"/>
       <c r="S91" s="20"/>
       <c r="T91" s="20"/>
     </row>
     <row r="92" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="107"/>
-      <c r="B92" s="211"/>
-      <c r="C92" s="211"/>
+      <c r="B92" s="210"/>
+      <c r="C92" s="210"/>
       <c r="D92" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="E92" s="232"/>
+      <c r="E92" s="231"/>
       <c r="F92" s="65"/>
       <c r="G92" s="61"/>
       <c r="H92" s="65"/>
       <c r="I92" s="66"/>
       <c r="J92" s="93"/>
       <c r="K92" s="91"/>
-      <c r="L92" s="313"/>
-      <c r="M92" s="323"/>
-      <c r="N92" s="319"/>
-      <c r="O92" s="319"/>
-      <c r="P92" s="324"/>
+      <c r="L92" s="311"/>
+      <c r="M92" s="321"/>
+      <c r="N92" s="317"/>
+      <c r="O92" s="317"/>
+      <c r="P92" s="322"/>
       <c r="R92" s="19"/>
       <c r="S92" s="20"/>
       <c r="T92" s="20"/>
     </row>
     <row r="93" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="107"/>
-      <c r="B93" s="220"/>
-      <c r="C93" s="220"/>
+      <c r="B93" s="219"/>
+      <c r="C93" s="219"/>
       <c r="D93" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="E93" s="232"/>
+      <c r="E93" s="231"/>
       <c r="F93" s="65"/>
       <c r="G93" s="61"/>
       <c r="H93" s="65"/>
       <c r="I93" s="66"/>
       <c r="J93" s="90"/>
       <c r="K93" s="94"/>
-      <c r="L93" s="313"/>
-      <c r="M93" s="323"/>
-      <c r="N93" s="319"/>
-      <c r="O93" s="319"/>
-      <c r="P93" s="324"/>
+      <c r="L93" s="311"/>
+      <c r="M93" s="321"/>
+      <c r="N93" s="317"/>
+      <c r="O93" s="317"/>
+      <c r="P93" s="322"/>
       <c r="R93" s="19"/>
       <c r="S93" s="20"/>
       <c r="T93" s="20"/>
     </row>
     <row r="94" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="107"/>
-      <c r="B94" s="211"/>
-      <c r="C94" s="211"/>
+      <c r="B94" s="210"/>
+      <c r="C94" s="210"/>
       <c r="D94" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="E94" s="232"/>
+      <c r="E94" s="231"/>
       <c r="F94" s="65"/>
       <c r="G94" s="61"/>
       <c r="H94" s="65"/>
       <c r="I94" s="66"/>
       <c r="J94" s="90"/>
       <c r="K94" s="94"/>
-      <c r="L94" s="313"/>
-      <c r="M94" s="323"/>
-      <c r="N94" s="319"/>
-      <c r="O94" s="319"/>
-      <c r="P94" s="324"/>
+      <c r="L94" s="311"/>
+      <c r="M94" s="321"/>
+      <c r="N94" s="317"/>
+      <c r="O94" s="317"/>
+      <c r="P94" s="322"/>
       <c r="R94" s="19"/>
       <c r="S94" s="20"/>
       <c r="T94" s="20"/>
     </row>
     <row r="95" spans="1:20" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="107"/>
-      <c r="B95" s="211"/>
-      <c r="C95" s="211"/>
+      <c r="B95" s="210"/>
+      <c r="C95" s="210"/>
       <c r="D95" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="E95" s="232"/>
+      <c r="E95" s="231"/>
       <c r="F95" s="72"/>
       <c r="G95" s="70"/>
       <c r="H95" s="72"/>
       <c r="I95" s="68"/>
       <c r="J95" s="93"/>
       <c r="K95" s="91"/>
-      <c r="L95" s="313"/>
-      <c r="M95" s="323"/>
-      <c r="N95" s="319"/>
-      <c r="O95" s="319"/>
-      <c r="P95" s="324"/>
+      <c r="L95" s="311"/>
+      <c r="M95" s="321"/>
+      <c r="N95" s="317"/>
+      <c r="O95" s="317"/>
+      <c r="P95" s="322"/>
       <c r="R95" s="19"/>
       <c r="S95" s="20"/>
       <c r="T95" s="20"/>
@@ -10106,19 +10110,19 @@
       <c r="A96" s="110"/>
       <c r="B96" s="111"/>
       <c r="C96" s="111"/>
-      <c r="D96" s="311"/>
-      <c r="E96" s="212"/>
-      <c r="F96" s="212"/>
-      <c r="G96" s="278"/>
-      <c r="H96" s="212"/>
-      <c r="I96" s="279"/>
-      <c r="J96" s="222"/>
-      <c r="K96" s="213"/>
-      <c r="L96" s="315"/>
-      <c r="M96" s="323"/>
-      <c r="N96" s="319"/>
-      <c r="O96" s="319"/>
-      <c r="P96" s="324"/>
+      <c r="D96" s="309"/>
+      <c r="E96" s="211"/>
+      <c r="F96" s="211"/>
+      <c r="G96" s="276"/>
+      <c r="H96" s="211"/>
+      <c r="I96" s="277"/>
+      <c r="J96" s="221"/>
+      <c r="K96" s="212"/>
+      <c r="L96" s="313"/>
+      <c r="M96" s="321"/>
+      <c r="N96" s="317"/>
+      <c r="O96" s="317"/>
+      <c r="P96" s="322"/>
       <c r="R96" s="19"/>
       <c r="S96" s="20"/>
       <c r="T96" s="20"/>
@@ -10127,21 +10131,21 @@
       <c r="A97" s="107"/>
       <c r="B97" s="108"/>
       <c r="C97" s="109"/>
-      <c r="D97" s="239" t="s">
+      <c r="D97" s="238" t="s">
         <v>85</v>
       </c>
-      <c r="E97" s="240"/>
-      <c r="F97" s="240"/>
-      <c r="G97" s="240"/>
+      <c r="E97" s="239"/>
+      <c r="F97" s="239"/>
+      <c r="G97" s="239"/>
       <c r="H97" s="74"/>
       <c r="I97" s="75"/>
-      <c r="J97" s="206"/>
-      <c r="K97" s="207"/>
-      <c r="L97" s="335"/>
-      <c r="M97" s="320"/>
-      <c r="N97" s="340"/>
-      <c r="O97" s="333"/>
-      <c r="P97" s="341"/>
+      <c r="J97" s="205"/>
+      <c r="K97" s="206"/>
+      <c r="L97" s="333"/>
+      <c r="M97" s="318"/>
+      <c r="N97" s="338"/>
+      <c r="O97" s="331"/>
+      <c r="P97" s="339"/>
       <c r="R97" s="19"/>
       <c r="S97" s="20"/>
       <c r="T97" s="20"/>
@@ -10150,21 +10154,21 @@
       <c r="A98" s="107"/>
       <c r="B98" s="108"/>
       <c r="C98" s="109"/>
-      <c r="D98" s="300" t="s">
+      <c r="D98" s="298" t="s">
         <v>89</v>
       </c>
-      <c r="E98" s="301"/>
-      <c r="F98" s="301"/>
-      <c r="G98" s="301"/>
-      <c r="H98" s="301"/>
-      <c r="I98" s="302"/>
+      <c r="E98" s="299"/>
+      <c r="F98" s="299"/>
+      <c r="G98" s="299"/>
+      <c r="H98" s="299"/>
+      <c r="I98" s="300"/>
       <c r="J98" s="90"/>
       <c r="K98" s="91"/>
-      <c r="L98" s="313"/>
-      <c r="M98" s="323"/>
-      <c r="N98" s="319"/>
-      <c r="O98" s="319"/>
-      <c r="P98" s="324"/>
+      <c r="L98" s="311"/>
+      <c r="M98" s="321"/>
+      <c r="N98" s="317"/>
+      <c r="O98" s="317"/>
+      <c r="P98" s="322"/>
       <c r="R98" s="19"/>
       <c r="S98" s="20"/>
       <c r="T98" s="20"/>
@@ -10172,22 +10176,22 @@
     <row r="99" spans="1:22" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="107"/>
       <c r="B99" s="108"/>
-      <c r="C99" s="211"/>
-      <c r="D99" s="309" t="s">
+      <c r="C99" s="210"/>
+      <c r="D99" s="307" t="s">
         <v>110</v>
       </c>
-      <c r="E99" s="310"/>
-      <c r="F99" s="310"/>
-      <c r="G99" s="310"/>
-      <c r="H99" s="310"/>
-      <c r="I99" s="225"/>
+      <c r="E99" s="308"/>
+      <c r="F99" s="308"/>
+      <c r="G99" s="308"/>
+      <c r="H99" s="308"/>
+      <c r="I99" s="224"/>
       <c r="J99" s="90"/>
       <c r="K99" s="91"/>
-      <c r="L99" s="314"/>
-      <c r="M99" s="323"/>
-      <c r="N99" s="319"/>
-      <c r="O99" s="319"/>
-      <c r="P99" s="324"/>
+      <c r="L99" s="312"/>
+      <c r="M99" s="321"/>
+      <c r="N99" s="317"/>
+      <c r="O99" s="317"/>
+      <c r="P99" s="322"/>
       <c r="R99" s="19"/>
       <c r="S99" s="20"/>
       <c r="T99" s="20"/>
@@ -10196,21 +10200,21 @@
       <c r="A100" s="107"/>
       <c r="B100" s="108"/>
       <c r="C100"/>
-      <c r="D100" s="299" t="s">
+      <c r="D100" s="297" t="s">
         <v>108</v>
       </c>
-      <c r="E100" s="203"/>
-      <c r="F100" s="203"/>
-      <c r="G100" s="203"/>
-      <c r="H100" s="203"/>
+      <c r="E100" s="202"/>
+      <c r="F100" s="202"/>
+      <c r="G100" s="202"/>
+      <c r="H100" s="202"/>
       <c r="I100" s="78"/>
       <c r="J100" s="90"/>
       <c r="K100" s="91"/>
-      <c r="L100" s="313"/>
-      <c r="M100" s="323"/>
-      <c r="N100" s="319"/>
-      <c r="O100" s="319"/>
-      <c r="P100" s="324"/>
+      <c r="L100" s="311"/>
+      <c r="M100" s="321"/>
+      <c r="N100" s="317"/>
+      <c r="O100" s="317"/>
+      <c r="P100" s="322"/>
       <c r="R100" s="19"/>
       <c r="S100" s="20"/>
       <c r="T100" s="20"/>
@@ -10218,9 +10222,9 @@
     <row r="101" spans="1:22" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="107"/>
       <c r="B101" s="108"/>
-      <c r="C101" s="211"/>
-      <c r="D101" s="202"/>
-      <c r="E101" s="298" t="s">
+      <c r="C101" s="210"/>
+      <c r="D101" s="343"/>
+      <c r="E101" s="296" t="s">
         <v>13</v>
       </c>
       <c r="F101" s="67"/>
@@ -10229,11 +10233,11 @@
       <c r="I101" s="68"/>
       <c r="J101" s="93"/>
       <c r="K101" s="94"/>
-      <c r="L101" s="313"/>
-      <c r="M101" s="323"/>
-      <c r="N101" s="319"/>
-      <c r="O101" s="319"/>
-      <c r="P101" s="324"/>
+      <c r="L101" s="311"/>
+      <c r="M101" s="321"/>
+      <c r="N101" s="317"/>
+      <c r="O101" s="317"/>
+      <c r="P101" s="322"/>
       <c r="R101" s="19"/>
       <c r="S101" s="20"/>
       <c r="T101" s="20"/>
@@ -10241,8 +10245,8 @@
     <row r="102" spans="1:22" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="107"/>
       <c r="B102" s="108"/>
-      <c r="C102" s="211"/>
-      <c r="D102" s="202"/>
+      <c r="C102" s="210"/>
+      <c r="D102" s="344"/>
       <c r="E102" s="69" t="s">
         <v>14</v>
       </c>
@@ -10252,11 +10256,11 @@
       <c r="I102" s="68"/>
       <c r="J102" s="93"/>
       <c r="K102" s="91"/>
-      <c r="L102" s="313"/>
-      <c r="M102" s="323"/>
-      <c r="N102" s="319"/>
-      <c r="O102" s="319"/>
-      <c r="P102" s="324"/>
+      <c r="L102" s="311"/>
+      <c r="M102" s="321"/>
+      <c r="N102" s="317"/>
+      <c r="O102" s="317"/>
+      <c r="P102" s="322"/>
       <c r="R102" s="19"/>
       <c r="S102" s="20"/>
       <c r="T102" s="20"/>
@@ -10265,8 +10269,8 @@
       <c r="A103" s="107"/>
       <c r="B103" s="108"/>
       <c r="C103"/>
-      <c r="D103" s="202"/>
-      <c r="E103" s="298" t="s">
+      <c r="D103" s="345"/>
+      <c r="E103" s="296" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="67"/>
@@ -10275,11 +10279,11 @@
       <c r="I103" s="68"/>
       <c r="J103" s="93"/>
       <c r="K103" s="94"/>
-      <c r="L103" s="314"/>
-      <c r="M103" s="323"/>
-      <c r="N103" s="319"/>
-      <c r="O103" s="319"/>
-      <c r="P103" s="324"/>
+      <c r="L103" s="312"/>
+      <c r="M103" s="321"/>
+      <c r="N103" s="317"/>
+      <c r="O103" s="317"/>
+      <c r="P103" s="322"/>
       <c r="R103" s="19"/>
       <c r="S103" s="20"/>
       <c r="T103" s="20"/>
@@ -10287,8 +10291,8 @@
     <row r="104" spans="1:22" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="107"/>
       <c r="B104" s="108"/>
-      <c r="C104" s="211"/>
-      <c r="D104" s="305"/>
+      <c r="C104" s="210"/>
+      <c r="D104" s="303"/>
       <c r="E104" s="102"/>
       <c r="F104" s="102"/>
       <c r="G104" s="102"/>
@@ -10296,11 +10300,11 @@
       <c r="I104" s="103"/>
       <c r="J104" s="90"/>
       <c r="K104" s="91"/>
-      <c r="L104" s="313"/>
-      <c r="M104" s="323"/>
-      <c r="N104" s="319"/>
-      <c r="O104" s="319"/>
-      <c r="P104" s="324"/>
+      <c r="L104" s="311"/>
+      <c r="M104" s="321"/>
+      <c r="N104" s="317"/>
+      <c r="O104" s="317"/>
+      <c r="P104" s="322"/>
       <c r="R104" s="19"/>
       <c r="S104" s="20"/>
       <c r="T104" s="20"/>
@@ -10309,21 +10313,21 @@
       <c r="A105" s="107"/>
       <c r="B105" s="108"/>
       <c r="C105" s="109"/>
-      <c r="D105" s="306" t="s">
+      <c r="D105" s="304" t="s">
         <v>90</v>
       </c>
-      <c r="E105" s="307"/>
-      <c r="F105" s="307"/>
-      <c r="G105" s="307"/>
-      <c r="H105" s="307"/>
-      <c r="I105" s="308"/>
+      <c r="E105" s="305"/>
+      <c r="F105" s="305"/>
+      <c r="G105" s="305"/>
+      <c r="H105" s="305"/>
+      <c r="I105" s="306"/>
       <c r="J105" s="90"/>
       <c r="K105" s="91"/>
-      <c r="L105" s="313"/>
-      <c r="M105" s="323"/>
-      <c r="N105" s="319"/>
-      <c r="O105" s="319"/>
-      <c r="P105" s="324"/>
+      <c r="L105" s="311"/>
+      <c r="M105" s="321"/>
+      <c r="N105" s="317"/>
+      <c r="O105" s="317"/>
+      <c r="P105" s="322"/>
       <c r="R105" s="19"/>
       <c r="S105" s="20"/>
       <c r="T105" s="20"/>
@@ -10331,22 +10335,22 @@
     <row r="106" spans="1:22" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="107"/>
       <c r="B106"/>
-      <c r="C106" s="211"/>
-      <c r="D106" s="303" t="s">
+      <c r="C106" s="210"/>
+      <c r="D106" s="301" t="s">
         <v>109</v>
       </c>
-      <c r="E106" s="304"/>
-      <c r="F106" s="304"/>
-      <c r="G106" s="304"/>
-      <c r="H106" s="304"/>
-      <c r="I106" s="238"/>
+      <c r="E106" s="302"/>
+      <c r="F106" s="302"/>
+      <c r="G106" s="302"/>
+      <c r="H106" s="302"/>
+      <c r="I106" s="237"/>
       <c r="J106" s="95"/>
       <c r="K106" s="97"/>
-      <c r="L106" s="313"/>
-      <c r="M106" s="323"/>
-      <c r="N106" s="319"/>
-      <c r="O106" s="319"/>
-      <c r="P106" s="324"/>
+      <c r="L106" s="311"/>
+      <c r="M106" s="321"/>
+      <c r="N106" s="317"/>
+      <c r="O106" s="317"/>
+      <c r="P106" s="322"/>
       <c r="R106" s="19"/>
       <c r="S106" s="20"/>
       <c r="T106" s="20"/>
@@ -10354,22 +10358,22 @@
     <row r="107" spans="1:22" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="107"/>
       <c r="B107" s="108"/>
-      <c r="C107" s="211"/>
-      <c r="D107" s="202"/>
-      <c r="E107" s="298" t="s">
+      <c r="C107" s="210"/>
+      <c r="D107" s="343"/>
+      <c r="E107" s="296" t="s">
         <v>91</v>
       </c>
-      <c r="F107" s="203"/>
-      <c r="G107" s="203"/>
-      <c r="H107" s="203"/>
+      <c r="F107" s="202"/>
+      <c r="G107" s="202"/>
+      <c r="H107" s="202"/>
       <c r="I107" s="78"/>
       <c r="J107" s="93"/>
       <c r="K107" s="94"/>
-      <c r="L107" s="314"/>
-      <c r="M107" s="323"/>
-      <c r="N107" s="319"/>
-      <c r="O107" s="319"/>
-      <c r="P107" s="324"/>
+      <c r="L107" s="312"/>
+      <c r="M107" s="321"/>
+      <c r="N107" s="317"/>
+      <c r="O107" s="317"/>
+      <c r="P107" s="322"/>
       <c r="R107" s="19"/>
       <c r="S107" s="20"/>
       <c r="T107" s="20"/>
@@ -10377,9 +10381,9 @@
     <row r="108" spans="1:22" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="107"/>
       <c r="B108" s="108"/>
-      <c r="C108" s="211"/>
-      <c r="D108" s="202"/>
-      <c r="E108" s="298" t="s">
+      <c r="C108" s="210"/>
+      <c r="D108" s="345"/>
+      <c r="E108" s="296" t="s">
         <v>12</v>
       </c>
       <c r="F108" s="67"/>
@@ -10388,11 +10392,11 @@
       <c r="I108" s="68"/>
       <c r="J108" s="93"/>
       <c r="K108" s="94"/>
-      <c r="L108" s="314"/>
-      <c r="M108" s="323"/>
-      <c r="N108" s="319"/>
-      <c r="O108" s="319"/>
-      <c r="P108" s="324"/>
+      <c r="L108" s="312"/>
+      <c r="M108" s="321"/>
+      <c r="N108" s="317"/>
+      <c r="O108" s="317"/>
+      <c r="P108" s="322"/>
       <c r="R108" s="19"/>
       <c r="S108" s="20"/>
       <c r="T108" s="20"/>
@@ -10400,20 +10404,20 @@
     <row r="109" spans="1:22" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="107"/>
       <c r="B109" s="108"/>
-      <c r="C109" s="211"/>
-      <c r="D109" s="305"/>
+      <c r="C109" s="210"/>
+      <c r="D109" s="303"/>
       <c r="E109" s="102"/>
       <c r="F109" s="102"/>
       <c r="G109" s="102"/>
       <c r="H109" s="102"/>
       <c r="I109" s="103"/>
-      <c r="J109" s="204"/>
-      <c r="K109" s="205"/>
-      <c r="L109" s="336"/>
-      <c r="M109" s="323"/>
-      <c r="N109" s="319"/>
-      <c r="O109" s="319"/>
-      <c r="P109" s="324"/>
+      <c r="J109" s="203"/>
+      <c r="K109" s="204"/>
+      <c r="L109" s="334"/>
+      <c r="M109" s="321"/>
+      <c r="N109" s="317"/>
+      <c r="O109" s="317"/>
+      <c r="P109" s="322"/>
       <c r="R109" s="19"/>
       <c r="S109" s="20"/>
       <c r="T109" s="20"/>
@@ -10422,21 +10426,21 @@
       <c r="A110" s="107"/>
       <c r="B110" s="108"/>
       <c r="C110" s="109"/>
-      <c r="D110" s="292" t="s">
+      <c r="D110" s="290" t="s">
         <v>92</v>
       </c>
-      <c r="E110" s="293"/>
-      <c r="F110" s="293"/>
-      <c r="G110" s="293"/>
-      <c r="H110" s="293"/>
-      <c r="I110" s="293"/>
-      <c r="J110" s="208"/>
-      <c r="K110" s="208"/>
-      <c r="L110" s="208"/>
-      <c r="M110" s="325"/>
-      <c r="N110" s="326"/>
-      <c r="O110" s="326"/>
-      <c r="P110" s="327"/>
+      <c r="E110" s="291"/>
+      <c r="F110" s="291"/>
+      <c r="G110" s="291"/>
+      <c r="H110" s="291"/>
+      <c r="I110" s="291"/>
+      <c r="J110" s="207"/>
+      <c r="K110" s="207"/>
+      <c r="L110" s="207"/>
+      <c r="M110" s="323"/>
+      <c r="N110" s="324"/>
+      <c r="O110" s="324"/>
+      <c r="P110" s="325"/>
       <c r="R110" s="19"/>
       <c r="S110" s="20"/>
       <c r="T110" s="20"/>
@@ -10445,23 +10449,23 @@
       <c r="A111" s="34"/>
       <c r="B111" s="35"/>
       <c r="C111" s="43"/>
-      <c r="D111" s="294"/>
-      <c r="E111" s="295"/>
-      <c r="F111" s="295"/>
-      <c r="G111" s="296"/>
-      <c r="H111" s="296"/>
-      <c r="I111" s="297" t="s">
+      <c r="D111" s="292"/>
+      <c r="E111" s="293"/>
+      <c r="F111" s="293"/>
+      <c r="G111" s="294"/>
+      <c r="H111" s="294"/>
+      <c r="I111" s="295" t="s">
         <v>2</v>
       </c>
       <c r="J111" s="48"/>
       <c r="K111" s="49"/>
       <c r="L111" s="54"/>
-      <c r="M111" s="337" t="s">
+      <c r="M111" s="335" t="s">
         <v>7</v>
       </c>
-      <c r="N111" s="338"/>
-      <c r="O111" s="338"/>
-      <c r="P111" s="339"/>
+      <c r="N111" s="336"/>
+      <c r="O111" s="336"/>
+      <c r="P111" s="337"/>
       <c r="R111" s="19"/>
       <c r="S111" s="20"/>
       <c r="T111" s="20"/>
@@ -10765,21 +10769,21 @@
       </c>
       <c r="B125" s="123"/>
       <c r="C125" s="124"/>
-      <c r="D125" s="241" t="s">
+      <c r="D125" s="240" t="s">
         <v>112</v>
       </c>
-      <c r="E125" s="242"/>
-      <c r="F125" s="242"/>
-      <c r="G125" s="242"/>
-      <c r="H125" s="242"/>
-      <c r="I125" s="242"/>
-      <c r="J125" s="242"/>
-      <c r="K125" s="242"/>
-      <c r="L125" s="242"/>
-      <c r="M125" s="242"/>
-      <c r="N125" s="242"/>
-      <c r="O125" s="242"/>
-      <c r="P125" s="243"/>
+      <c r="E125" s="241"/>
+      <c r="F125" s="241"/>
+      <c r="G125" s="241"/>
+      <c r="H125" s="241"/>
+      <c r="I125" s="241"/>
+      <c r="J125" s="241"/>
+      <c r="K125" s="241"/>
+      <c r="L125" s="241"/>
+      <c r="M125" s="241"/>
+      <c r="N125" s="241"/>
+      <c r="O125" s="241"/>
+      <c r="P125" s="242"/>
       <c r="R125" s="2"/>
       <c r="S125" s="3"/>
       <c r="T125" s="3"/>
@@ -10790,19 +10794,19 @@
       <c r="A126" s="125"/>
       <c r="B126" s="126"/>
       <c r="C126" s="127"/>
-      <c r="D126" s="244"/>
-      <c r="E126" s="245"/>
-      <c r="F126" s="245"/>
-      <c r="G126" s="245"/>
-      <c r="H126" s="245"/>
-      <c r="I126" s="245"/>
-      <c r="J126" s="245"/>
-      <c r="K126" s="245"/>
-      <c r="L126" s="245"/>
-      <c r="M126" s="245"/>
-      <c r="N126" s="245"/>
-      <c r="O126" s="245"/>
-      <c r="P126" s="246"/>
+      <c r="D126" s="243"/>
+      <c r="E126" s="244"/>
+      <c r="F126" s="244"/>
+      <c r="G126" s="244"/>
+      <c r="H126" s="244"/>
+      <c r="I126" s="244"/>
+      <c r="J126" s="244"/>
+      <c r="K126" s="244"/>
+      <c r="L126" s="244"/>
+      <c r="M126" s="244"/>
+      <c r="N126" s="244"/>
+      <c r="O126" s="244"/>
+      <c r="P126" s="245"/>
       <c r="R126" s="2"/>
       <c r="S126" s="3"/>
       <c r="T126" s="3"/>
@@ -10813,19 +10817,19 @@
       <c r="A127" s="125"/>
       <c r="B127" s="126"/>
       <c r="C127" s="127"/>
-      <c r="D127" s="244"/>
-      <c r="E127" s="245"/>
-      <c r="F127" s="245"/>
-      <c r="G127" s="245"/>
-      <c r="H127" s="245"/>
-      <c r="I127" s="245"/>
-      <c r="J127" s="245"/>
-      <c r="K127" s="245"/>
-      <c r="L127" s="245"/>
-      <c r="M127" s="245"/>
-      <c r="N127" s="245"/>
-      <c r="O127" s="245"/>
-      <c r="P127" s="246"/>
+      <c r="D127" s="243"/>
+      <c r="E127" s="244"/>
+      <c r="F127" s="244"/>
+      <c r="G127" s="244"/>
+      <c r="H127" s="244"/>
+      <c r="I127" s="244"/>
+      <c r="J127" s="244"/>
+      <c r="K127" s="244"/>
+      <c r="L127" s="244"/>
+      <c r="M127" s="244"/>
+      <c r="N127" s="244"/>
+      <c r="O127" s="244"/>
+      <c r="P127" s="245"/>
       <c r="R127" s="2"/>
       <c r="S127" s="3"/>
       <c r="T127" s="3"/>
@@ -10836,19 +10840,19 @@
       <c r="A128" s="128"/>
       <c r="B128" s="129"/>
       <c r="C128" s="130"/>
-      <c r="D128" s="247"/>
-      <c r="E128" s="248"/>
-      <c r="F128" s="248"/>
-      <c r="G128" s="248"/>
-      <c r="H128" s="248"/>
-      <c r="I128" s="248"/>
-      <c r="J128" s="248"/>
-      <c r="K128" s="248"/>
-      <c r="L128" s="248"/>
-      <c r="M128" s="248"/>
-      <c r="N128" s="248"/>
-      <c r="O128" s="248"/>
-      <c r="P128" s="249"/>
+      <c r="D128" s="246"/>
+      <c r="E128" s="247"/>
+      <c r="F128" s="247"/>
+      <c r="G128" s="247"/>
+      <c r="H128" s="247"/>
+      <c r="I128" s="247"/>
+      <c r="J128" s="247"/>
+      <c r="K128" s="247"/>
+      <c r="L128" s="247"/>
+      <c r="M128" s="247"/>
+      <c r="N128" s="247"/>
+      <c r="O128" s="247"/>
+      <c r="P128" s="248"/>
       <c r="Q128" s="47"/>
       <c r="R128" s="47"/>
       <c r="T128" s="16"/>
